--- a/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/Spatial_Multisector-RBC-SOE-model_capital_sector_specific/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/DGE_CRED_Model/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52C1A6C0-ABAB-4462-9189-CB3A4A02EFAF}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B334974F-9A0B-4CC2-A33A-A8B3FEA5E235}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
+    <workbookView xWindow="-37005" yWindow="-165" windowWidth="28800" windowHeight="15375" activeTab="5" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9A47B1-1A66-4C77-92E3-06B052F5798C}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1329,7 @@
         <v>216</v>
       </c>
       <c r="B17">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B21">
         <f>1-SUM(B16:B20)</f>
-        <v>0.29999999999999993</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1414,7 +1414,7 @@
         <v>223</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1425,7 +1425,7 @@
         <v>224</v>
       </c>
       <c r="B26">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1436,7 +1436,7 @@
         <v>225</v>
       </c>
       <c r="B27">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B28">
         <f>1-SUM(B23:B27)</f>
-        <v>0.30000000000000004</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1477,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -6236,8 +6236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8565A1A-0961-48B1-82B4-EF9F3A4E6651}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J100"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101:J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6288,31 +6288,31 @@
       </c>
       <c r="D2" s="3">
         <f>D$101/($A$101-$A$2+1)</f>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:J2" si="0">E$101/($A$101-$A$2+1)</f>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6329,31 +6329,31 @@
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:J3" si="2">E2+E$101/($A$101-$A$2+1)</f>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6370,31 +6370,31 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:J4" si="4">E3+E$101/($A$101-$A$2+1)</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6411,31 +6411,31 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:J5" si="5">E4+E$101/($A$101-$A$2+1)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6452,31 +6452,31 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:J6" si="6">E5+E$101/($A$101-$A$2+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6493,31 +6493,31 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:J7" si="7">E6+E$101/($A$101-$A$2+1)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6534,31 +6534,31 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:J8" si="8">E7+E$101/($A$101-$A$2+1)</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -6575,31 +6575,31 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="9">E8+E$101/($A$101-$A$2+1)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -6616,31 +6616,31 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:J10" si="10">E9+E$101/($A$101-$A$2+1)</f>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="F10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -6657,31 +6657,31 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:J11" si="11">E10+E$101/($A$101-$A$2+1)</f>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="F11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -6698,31 +6698,31 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:J12" si="12">E11+E$101/($A$101-$A$2+1)</f>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="G12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -6739,31 +6739,31 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:J13" si="13">E12+E$101/($A$101-$A$2+1)</f>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -6780,31 +6780,31 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:J14" si="14">E13+E$101/($A$101-$A$2+1)</f>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -6821,31 +6821,31 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:J15" si="15">E14+E$101/($A$101-$A$2+1)</f>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -6862,31 +6862,31 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:J16" si="16">E15+E$101/($A$101-$A$2+1)</f>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -6903,31 +6903,31 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:J17" si="17">E16+E$101/($A$101-$A$2+1)</f>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="G17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6944,31 +6944,31 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:J18" si="18">E17+E$101/($A$101-$A$2+1)</f>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6985,31 +6985,31 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:J19" si="19">E18+E$101/($A$101-$A$2+1)</f>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -7026,31 +7026,31 @@
       </c>
       <c r="D20">
         <f t="shared" si="20"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:J20" si="21">E19+E$101/($A$101-$A$2+1)</f>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -7067,31 +7067,31 @@
       </c>
       <c r="D21">
         <f t="shared" si="20"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:J21" si="22">E20+E$101/($A$101-$A$2+1)</f>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="F21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="H21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -7108,31 +7108,31 @@
       </c>
       <c r="D22">
         <f t="shared" si="20"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:J22" si="23">E21+E$101/($A$101-$A$2+1)</f>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="F22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -7149,31 +7149,31 @@
       </c>
       <c r="D23">
         <f t="shared" si="20"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:J23" si="24">E22+E$101/($A$101-$A$2+1)</f>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -7190,31 +7190,31 @@
       </c>
       <c r="D24">
         <f t="shared" si="20"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:J24" si="25">E23+E$101/($A$101-$A$2+1)</f>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -7231,31 +7231,31 @@
       </c>
       <c r="D25">
         <f t="shared" si="20"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:J25" si="26">E24+E$101/($A$101-$A$2+1)</f>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -7272,31 +7272,31 @@
       </c>
       <c r="D26">
         <f t="shared" si="20"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:J26" si="27">E25+E$101/($A$101-$A$2+1)</f>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="F26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -7313,31 +7313,31 @@
       </c>
       <c r="D27">
         <f t="shared" si="20"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:J27" si="28">E26+E$101/($A$101-$A$2+1)</f>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="F27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="G27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="H27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="J27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -7354,31 +7354,31 @@
       </c>
       <c r="D28">
         <f t="shared" si="20"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:J28" si="29">E27+E$101/($A$101-$A$2+1)</f>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="F28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="H28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="J28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -7395,31 +7395,31 @@
       </c>
       <c r="D29">
         <f t="shared" si="20"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="E29">
         <f t="shared" ref="E29:J29" si="30">E28+E$101/($A$101-$A$2+1)</f>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="F29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="G29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="H29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="J29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -7436,31 +7436,31 @@
       </c>
       <c r="D30">
         <f t="shared" si="20"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:J30" si="31">E29+E$101/($A$101-$A$2+1)</f>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -7477,31 +7477,31 @@
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:J31" si="32">E30+E$101/($A$101-$A$2+1)</f>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -7518,31 +7518,31 @@
       </c>
       <c r="D32">
         <f t="shared" si="20"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="E32">
         <f t="shared" ref="E32:J32" si="33">E31+E$101/($A$101-$A$2+1)</f>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="F32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="G32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="H32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="I32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="J32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -7559,31 +7559,31 @@
       </c>
       <c r="D33">
         <f t="shared" si="20"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:J33" si="34">E32+E$101/($A$101-$A$2+1)</f>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="F33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="G33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="H33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="I33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="J33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -7600,31 +7600,31 @@
       </c>
       <c r="D34">
         <f t="shared" si="20"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:J34" si="35">E33+E$101/($A$101-$A$2+1)</f>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="F34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="G34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="H34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="J34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -7641,31 +7641,31 @@
       </c>
       <c r="D35">
         <f t="shared" si="20"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:J35" si="36">E34+E$101/($A$101-$A$2+1)</f>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="F35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="G35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="H35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="J35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -7682,31 +7682,31 @@
       </c>
       <c r="D36">
         <f t="shared" si="37"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:J36" si="38">E35+E$101/($A$101-$A$2+1)</f>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="F36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="G36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="H36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="J36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -7723,31 +7723,31 @@
       </c>
       <c r="D37">
         <f t="shared" si="37"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:J37" si="39">E36+E$101/($A$101-$A$2+1)</f>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="F37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="G37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="H37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -7764,31 +7764,31 @@
       </c>
       <c r="D38">
         <f t="shared" si="37"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="E38">
         <f t="shared" ref="E38:J38" si="40">E37+E$101/($A$101-$A$2+1)</f>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="F38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="G38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="H38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="J38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -7805,31 +7805,31 @@
       </c>
       <c r="D39">
         <f t="shared" si="37"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:J39" si="41">E38+E$101/($A$101-$A$2+1)</f>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="F39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="G39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="H39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="I39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="J39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -7846,31 +7846,31 @@
       </c>
       <c r="D40">
         <f t="shared" si="37"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="E40">
         <f t="shared" ref="E40:J40" si="42">E39+E$101/($A$101-$A$2+1)</f>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="F40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="G40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="H40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="J40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -7887,31 +7887,31 @@
       </c>
       <c r="D41">
         <f t="shared" si="37"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:J41" si="43">E40+E$101/($A$101-$A$2+1)</f>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="F41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="G41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="H41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="I41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="J41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -7928,31 +7928,31 @@
       </c>
       <c r="D42">
         <f t="shared" si="37"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:J42" si="44">E41+E$101/($A$101-$A$2+1)</f>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="F42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="G42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="H42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="I42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="J42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -7969,31 +7969,31 @@
       </c>
       <c r="D43">
         <f t="shared" si="37"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:J43" si="45">E42+E$101/($A$101-$A$2+1)</f>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="F43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="G43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="H43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="J43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -8010,31 +8010,31 @@
       </c>
       <c r="D44">
         <f t="shared" si="37"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="E44">
         <f t="shared" ref="E44:J44" si="46">E43+E$101/($A$101-$A$2+1)</f>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="F44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="G44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="H44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="J44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -8051,31 +8051,31 @@
       </c>
       <c r="D45">
         <f t="shared" si="37"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45:J45" si="47">E44+E$101/($A$101-$A$2+1)</f>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="F45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="G45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="H45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="J45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -8092,31 +8092,31 @@
       </c>
       <c r="D46">
         <f t="shared" si="37"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="E46">
         <f t="shared" ref="E46:J46" si="48">E45+E$101/($A$101-$A$2+1)</f>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="F46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="G46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="H46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -8133,31 +8133,31 @@
       </c>
       <c r="D47">
         <f t="shared" si="37"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:J47" si="49">E46+E$101/($A$101-$A$2+1)</f>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="F47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="G47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="H47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="I47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="J47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -8174,31 +8174,31 @@
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="E48">
         <f t="shared" ref="E48:J48" si="50">E47+E$101/($A$101-$A$2+1)</f>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="F48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="G48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="H48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="I48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="J48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -8215,31 +8215,31 @@
       </c>
       <c r="D49">
         <f t="shared" si="37"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E49">
         <f t="shared" ref="E49:J49" si="51">E48+E$101/($A$101-$A$2+1)</f>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="J49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -8256,31 +8256,31 @@
       </c>
       <c r="D50">
         <f t="shared" si="37"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:J50" si="52">E49+E$101/($A$101-$A$2+1)</f>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="H50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="J50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -8297,31 +8297,31 @@
       </c>
       <c r="D51">
         <f t="shared" si="37"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E51">
         <f t="shared" ref="E51:J51" si="53">E50+E$101/($A$101-$A$2+1)</f>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -8338,31 +8338,31 @@
       </c>
       <c r="D52">
         <f t="shared" si="54"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E52">
         <f t="shared" ref="E52:J52" si="55">E51+E$101/($A$101-$A$2+1)</f>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -8379,31 +8379,31 @@
       </c>
       <c r="D53">
         <f t="shared" si="54"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:J53" si="56">E52+E$101/($A$101-$A$2+1)</f>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="G53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="H53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="J53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -8420,31 +8420,31 @@
       </c>
       <c r="D54">
         <f t="shared" si="54"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="E54">
         <f t="shared" ref="E54:J54" si="57">E53+E$101/($A$101-$A$2+1)</f>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="G54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="H54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="I54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -8461,31 +8461,31 @@
       </c>
       <c r="D55">
         <f t="shared" si="54"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="E55">
         <f t="shared" ref="E55:J55" si="58">E54+E$101/($A$101-$A$2+1)</f>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="F55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="G55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="H55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="I55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -8502,31 +8502,31 @@
       </c>
       <c r="D56">
         <f t="shared" si="54"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:J56" si="59">E55+E$101/($A$101-$A$2+1)</f>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="H56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="I56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="J56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -8543,31 +8543,31 @@
       </c>
       <c r="D57">
         <f t="shared" si="54"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="E57">
         <f t="shared" ref="E57:J57" si="60">E56+E$101/($A$101-$A$2+1)</f>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="H57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="J57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -8584,31 +8584,31 @@
       </c>
       <c r="D58">
         <f t="shared" si="54"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="E58">
         <f t="shared" ref="E58:J58" si="61">E57+E$101/($A$101-$A$2+1)</f>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="H58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="I58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="J58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -8625,31 +8625,31 @@
       </c>
       <c r="D59">
         <f t="shared" si="54"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="E59">
         <f t="shared" ref="E59:J59" si="62">E58+E$101/($A$101-$A$2+1)</f>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="H59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="I59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="J59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -8666,31 +8666,31 @@
       </c>
       <c r="D60">
         <f t="shared" si="54"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:J60" si="63">E59+E$101/($A$101-$A$2+1)</f>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="F60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="G60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="J60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -8707,31 +8707,31 @@
       </c>
       <c r="D61">
         <f t="shared" si="54"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="E61">
         <f t="shared" ref="E61:J61" si="64">E60+E$101/($A$101-$A$2+1)</f>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="G61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="H61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="I61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -8748,31 +8748,31 @@
       </c>
       <c r="D62">
         <f t="shared" si="54"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:J62" si="65">E61+E$101/($A$101-$A$2+1)</f>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="G62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="H62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="I62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="J62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -8789,31 +8789,31 @@
       </c>
       <c r="D63">
         <f t="shared" si="54"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ref="E63:J63" si="66">E62+E$101/($A$101-$A$2+1)</f>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="G63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="H63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="J63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -8830,31 +8830,31 @@
       </c>
       <c r="D64">
         <f t="shared" si="54"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:J64" si="67">E63+E$101/($A$101-$A$2+1)</f>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="G64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="H64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="J64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -8871,31 +8871,31 @@
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ref="E65:J65" si="68">E64+E$101/($A$101-$A$2+1)</f>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="G65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="H65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="J65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -8912,31 +8912,31 @@
       </c>
       <c r="D66">
         <f t="shared" si="54"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:J66" si="69">E65+E$101/($A$101-$A$2+1)</f>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="G66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="H66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="I66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="J66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -8953,31 +8953,31 @@
       </c>
       <c r="D67">
         <f t="shared" si="54"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:J67" si="70">E66+E$101/($A$101-$A$2+1)</f>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="G67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="H67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="I67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -8994,31 +8994,31 @@
       </c>
       <c r="D68">
         <f t="shared" si="71"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:J68" si="72">E67+E$101/($A$101-$A$2+1)</f>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="G68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="H68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="I68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="J68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -9035,31 +9035,31 @@
       </c>
       <c r="D69">
         <f t="shared" si="71"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:J69" si="73">E68+E$101/($A$101-$A$2+1)</f>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="F69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="G69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="H69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="I69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="J69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -9076,31 +9076,31 @@
       </c>
       <c r="D70">
         <f t="shared" si="71"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="E70">
         <f t="shared" ref="E70:J70" si="74">E69+E$101/($A$101-$A$2+1)</f>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="F70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="G70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="H70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="I70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="J70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -9117,31 +9117,31 @@
       </c>
       <c r="D71">
         <f t="shared" si="71"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:J71" si="75">E70+E$101/($A$101-$A$2+1)</f>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="F71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="G71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="H71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="I71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="J71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -9158,31 +9158,31 @@
       </c>
       <c r="D72">
         <f t="shared" si="71"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:J72" si="76">E71+E$101/($A$101-$A$2+1)</f>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="F72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="G72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="H72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="I72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="J72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -9199,31 +9199,31 @@
       </c>
       <c r="D73">
         <f t="shared" si="71"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="E73">
         <f t="shared" ref="E73:J73" si="77">E72+E$101/($A$101-$A$2+1)</f>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="F73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="G73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -9240,31 +9240,31 @@
       </c>
       <c r="D74">
         <f t="shared" si="71"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="E74">
         <f t="shared" ref="E74:J74" si="78">E73+E$101/($A$101-$A$2+1)</f>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="F74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="G74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="H74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="I74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="J74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -9281,31 +9281,31 @@
       </c>
       <c r="D75">
         <f t="shared" si="71"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="E75">
         <f t="shared" ref="E75:J75" si="79">E74+E$101/($A$101-$A$2+1)</f>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="F75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="G75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="H75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="I75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="J75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -9322,31 +9322,31 @@
       </c>
       <c r="D76">
         <f t="shared" si="71"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:J76" si="80">E75+E$101/($A$101-$A$2+1)</f>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="F76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="G76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="H76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="I76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="J76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -9363,31 +9363,31 @@
       </c>
       <c r="D77">
         <f t="shared" si="71"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="E77">
         <f t="shared" ref="E77:J77" si="81">E76+E$101/($A$101-$A$2+1)</f>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="F77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="G77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="H77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="I77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="J77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -9404,31 +9404,31 @@
       </c>
       <c r="D78">
         <f t="shared" si="71"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="E78">
         <f t="shared" ref="E78:J78" si="82">E77+E$101/($A$101-$A$2+1)</f>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="F78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="G78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="H78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="I78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="J78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -9445,31 +9445,31 @@
       </c>
       <c r="D79">
         <f t="shared" si="71"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="E79">
         <f t="shared" ref="E79:J79" si="83">E78+E$101/($A$101-$A$2+1)</f>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="F79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="G79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="H79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="I79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="J79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -9486,31 +9486,31 @@
       </c>
       <c r="D80">
         <f t="shared" si="71"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="E80">
         <f t="shared" ref="E80:J80" si="84">E79+E$101/($A$101-$A$2+1)</f>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="F80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="G80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="H80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="I80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="J80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -9527,31 +9527,31 @@
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="E81">
         <f t="shared" ref="E81:J81" si="85">E80+E$101/($A$101-$A$2+1)</f>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="F81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="H81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="I81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -9568,31 +9568,31 @@
       </c>
       <c r="D82">
         <f t="shared" si="71"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="E82">
         <f t="shared" ref="E82:J82" si="86">E81+E$101/($A$101-$A$2+1)</f>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="F82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="G82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="H82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="I82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="J82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -9609,31 +9609,31 @@
       </c>
       <c r="D83">
         <f t="shared" si="71"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:J83" si="87">E82+E$101/($A$101-$A$2+1)</f>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="F83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="G83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="H83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="I83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -9650,31 +9650,31 @@
       </c>
       <c r="D84">
         <f t="shared" si="88"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="E84">
         <f t="shared" ref="E84:J84" si="89">E83+E$101/($A$101-$A$2+1)</f>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="F84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="G84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="H84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="I84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="J84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -9691,31 +9691,31 @@
       </c>
       <c r="D85">
         <f t="shared" si="88"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="E85">
         <f t="shared" ref="E85:J85" si="90">E84+E$101/($A$101-$A$2+1)</f>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="F85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="G85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="H85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="I85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="J85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -9732,31 +9732,31 @@
       </c>
       <c r="D86">
         <f t="shared" si="88"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="E86">
         <f t="shared" ref="E86:J86" si="91">E85+E$101/($A$101-$A$2+1)</f>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="F86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="H86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="I86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="J86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -9773,31 +9773,31 @@
       </c>
       <c r="D87">
         <f t="shared" si="88"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="E87">
         <f t="shared" ref="E87:J87" si="92">E86+E$101/($A$101-$A$2+1)</f>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="F87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="G87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="H87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="I87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -9814,31 +9814,31 @@
       </c>
       <c r="D88">
         <f t="shared" si="88"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="E88">
         <f t="shared" ref="E88:J88" si="93">E87+E$101/($A$101-$A$2+1)</f>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="F88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="G88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="H88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="I88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="J88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -9855,31 +9855,31 @@
       </c>
       <c r="D89">
         <f t="shared" si="88"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="E89">
         <f t="shared" ref="E89:J89" si="94">E88+E$101/($A$101-$A$2+1)</f>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="F89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="G89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="H89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="I89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="J89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -9896,31 +9896,31 @@
       </c>
       <c r="D90">
         <f t="shared" si="88"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="E90">
         <f t="shared" ref="E90:J90" si="95">E89+E$101/($A$101-$A$2+1)</f>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="F90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="G90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="H90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="I90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="J90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -9937,31 +9937,31 @@
       </c>
       <c r="D91">
         <f t="shared" si="88"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="E91">
         <f t="shared" ref="E91:J91" si="96">E90+E$101/($A$101-$A$2+1)</f>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="F91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="G91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="H91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="I91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="J91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -9978,31 +9978,31 @@
       </c>
       <c r="D92">
         <f t="shared" si="88"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E92">
         <f t="shared" ref="E92:J92" si="97">E91+E$101/($A$101-$A$2+1)</f>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="H92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="I92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="J92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -10019,31 +10019,31 @@
       </c>
       <c r="D93">
         <f t="shared" si="88"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E93">
         <f t="shared" ref="E93:J93" si="98">E92+E$101/($A$101-$A$2+1)</f>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="F93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="G93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="H93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="I93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="J93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -10060,31 +10060,31 @@
       </c>
       <c r="D94">
         <f t="shared" si="88"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E94">
         <f t="shared" ref="E94:J94" si="99">E93+E$101/($A$101-$A$2+1)</f>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="F94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="G94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="H94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="I94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -10101,31 +10101,31 @@
       </c>
       <c r="D95">
         <f t="shared" si="88"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="E95">
         <f t="shared" ref="E95:J95" si="100">E94+E$101/($A$101-$A$2+1)</f>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="F95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="G95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="H95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="I95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="J95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -10142,31 +10142,31 @@
       </c>
       <c r="D96">
         <f t="shared" si="88"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="E96">
         <f t="shared" ref="E96:J96" si="101">E95+E$101/($A$101-$A$2+1)</f>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="F96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="G96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="I96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="J96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -10183,31 +10183,31 @@
       </c>
       <c r="D97">
         <f t="shared" si="88"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="E97">
         <f t="shared" ref="E97:J97" si="102">E96+E$101/($A$101-$A$2+1)</f>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="F97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="G97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="H97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="I97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="J97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -10224,31 +10224,31 @@
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:J98" si="103">E97+E$101/($A$101-$A$2+1)</f>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="F98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="G98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="I98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="J98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -10265,31 +10265,31 @@
       </c>
       <c r="D99">
         <f t="shared" si="88"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="E99">
         <f t="shared" ref="E99:J99" si="104">E98+E$101/($A$101-$A$2+1)</f>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="F99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="G99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="H99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="I99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="J99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -10306,31 +10306,31 @@
       </c>
       <c r="D100">
         <f t="shared" si="105"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="E100">
         <f t="shared" ref="E100:J100" si="106">E99+E$101/($A$101-$A$2+1)</f>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="G100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="H100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="I100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="J100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -10344,25 +10344,25 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="J101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/DGE_CRED_Model/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/DGE-CRED/DGE_CRED_Model/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B334974F-9A0B-4CC2-A33A-A8B3FEA5E235}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FAD918B-5518-4D9F-826F-6D2F57A90155}"/>
   <bookViews>
-    <workbookView xWindow="-37005" yWindow="-165" windowWidth="28800" windowHeight="15375" activeTab="5" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
+    <workbookView xWindow="-37005" yWindow="-165" windowWidth="28800" windowHeight="15375" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
   </bookViews>
   <sheets>
-    <sheet name="Start" sheetId="1" r:id="rId1"/>
-    <sheet name="Terminal" sheetId="2" r:id="rId2"/>
-    <sheet name="Baseline" sheetId="6" r:id="rId3"/>
-    <sheet name="Temperature" sheetId="7" r:id="rId4"/>
-    <sheet name="SeaLevel" sheetId="8" r:id="rId5"/>
-    <sheet name="Adaptation" sheetId="9" r:id="rId6"/>
-    <sheet name="Dynamics" sheetId="3" r:id="rId7"/>
-    <sheet name="Structural Parameters" sheetId="5" r:id="rId8"/>
-    <sheet name="Climate Damage Functions" sheetId="4" r:id="rId9"/>
+    <sheet name="Drought" sheetId="10" r:id="rId1"/>
+    <sheet name="Start" sheetId="1" r:id="rId2"/>
+    <sheet name="Terminal" sheetId="2" r:id="rId3"/>
+    <sheet name="Baseline" sheetId="6" r:id="rId4"/>
+    <sheet name="Temperature" sheetId="7" r:id="rId5"/>
+    <sheet name="SeaLevel" sheetId="8" r:id="rId6"/>
+    <sheet name="Adaptation" sheetId="9" r:id="rId7"/>
+    <sheet name="Dynamics" sheetId="3" r:id="rId8"/>
+    <sheet name="Structural Parameters" sheetId="5" r:id="rId9"/>
+    <sheet name="Climate Damage Functions" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="250">
   <si>
     <t>Parameter</t>
   </si>
@@ -788,6 +789,9 @@
   </si>
   <si>
     <t>exo_GA_3_2</t>
+  </si>
+  <si>
+    <t>Drought</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1152,2522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19758DA2-EB99-4BF8-9457-93A2F80A0458}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>$A3*B$101/($A$101-$A$2+1)+D2</f>
+        <v>0.18</v>
+      </c>
+      <c r="C2">
+        <f>$A3*C$101/($A$101-$A$2+1)+D2</f>
+        <v>0.18</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">$A4*B$101/($A$101-$A$2+1)+D3</f>
+        <v>0.24</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">$A4*C$101/($A$101-$A$2+1)+D3</f>
+        <v>0.24</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.36</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.36</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2.66</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.96</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2.96</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.26</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>3.26</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.56</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.68</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.74</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.74</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>3.8600000000000003</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.98</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>2.04</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>4.16</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>4.16</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>2.34</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>4.46</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>2.64</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>4.76</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>4.76</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.82</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>2.82</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>2.88</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2.94</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>2.94</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>3.18</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>5.3599999999999994</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>3.48</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>3.54</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>5.66</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>5.66</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>3.72</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>3.72</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>3.78</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>5.96</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B100" si="2">$A68*B$101/($A$101-$A$2+1)+D67</f>
+        <v>4.08</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C100" si="3">$A68*C$101/($A$101-$A$2+1)+D67</f>
+        <v>4.08</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>6.26</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>6.26</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>4.32</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>4.32</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>4.38</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>4.38</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>6.56</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>6.56</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>4.62</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>4.62</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>4.68</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>4.68</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>4.74</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>4.74</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>6.86</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>6.86</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>4.92</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>4.92</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>5.04</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>7.16</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>7.16</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>5.22</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>5.22</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>5.28</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>5.28</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>5.34</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>5.34</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>7.46</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>7.46</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>5.52</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>5.52</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>5.58</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>5.58</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>5.64</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>5.64</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>7.76</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>7.76</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>5.82</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>5.82</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>5.88</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>5.88</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>5.94</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>5.94</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>8.0599999999999987</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>8.0599999999999987</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C50BEA-4E18-4B30-B6D3-E637EFCA4A24}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9A47B1-1A66-4C77-92E3-06B052F5798C}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,7 +3844,7 @@
         <v>216</v>
       </c>
       <c r="B17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1374,7 +3889,7 @@
       </c>
       <c r="B21">
         <f>1-SUM(B16:B20)</f>
-        <v>0.33999999999999997</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1414,7 +3929,7 @@
         <v>223</v>
       </c>
       <c r="B25">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1425,7 +3940,7 @@
         <v>224</v>
       </c>
       <c r="B26">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1436,7 +3951,7 @@
         <v>225</v>
       </c>
       <c r="B27">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1448,7 +3963,7 @@
       </c>
       <c r="B28">
         <f>1-SUM(B23:B27)</f>
-        <v>0.1399999999999999</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1466,7 +3981,7 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1477,7 +3992,7 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1623,7 +4138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C5236F-B101-4D34-AD7D-A1BDAF4CB3FE}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1859,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9BB5E-2AB6-47A4-B3C3-1146DAC57027}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -3181,7 +5696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6907AF1B-70CE-4EF1-85FB-673CE30F9983}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -4506,7 +7021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBF2010-3729-421F-A9B2-F6A0F3BFF066}">
   <dimension ref="A1:D101"/>
   <sheetViews>
@@ -6232,12 +8747,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8565A1A-0961-48B1-82B4-EF9F3A4E6651}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:J101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6288,31 +8803,31 @@
       </c>
       <c r="D2" s="3">
         <f>D$101/($A$101-$A$2+1)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:J2" si="0">E$101/($A$101-$A$2+1)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6329,31 +8844,31 @@
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:J3" si="2">E2+E$101/($A$101-$A$2+1)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6370,31 +8885,31 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:J4" si="4">E3+E$101/($A$101-$A$2+1)</f>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>6.0000000000000006E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6411,31 +8926,31 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:J5" si="5">E4+E$101/($A$101-$A$2+1)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -6452,31 +8967,31 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:J6" si="6">E5+E$101/($A$101-$A$2+1)</f>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6493,31 +9008,31 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:J7" si="7">E6+E$101/($A$101-$A$2+1)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="7"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>1.2000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -6534,31 +9049,31 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:J8" si="8">E7+E$101/($A$101-$A$2+1)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="8"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="8"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>1.4000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -6575,31 +9090,31 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="9">E8+E$101/($A$101-$A$2+1)</f>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
-        <v>1.6000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -6616,31 +9131,31 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:J10" si="10">E9+E$101/($A$101-$A$2+1)</f>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="F10">
         <f t="shared" si="10"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="10"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="10"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="10"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="10"/>
-        <v>1.8000000000000004E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -6657,31 +9172,31 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:J11" si="11">E10+E$101/($A$101-$A$2+1)</f>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="11"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="11"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="11"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="11"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="11"/>
-        <v>2.0000000000000005E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -6698,31 +9213,31 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:J12" si="12">E11+E$101/($A$101-$A$2+1)</f>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="12"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="12"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="12"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="I12">
         <f t="shared" si="12"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="12"/>
-        <v>2.2000000000000006E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -6739,31 +9254,31 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:J13" si="13">E12+E$101/($A$101-$A$2+1)</f>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="13"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="13"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="13"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="13"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="13"/>
-        <v>2.4000000000000007E-3</v>
+        <v>1.2000000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -6780,31 +9295,31 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:J14" si="14">E13+E$101/($A$101-$A$2+1)</f>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="14"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="14"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="14"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="14"/>
-        <v>2.6000000000000007E-3</v>
+        <v>1.3000000000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -6821,31 +9336,31 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:J15" si="15">E14+E$101/($A$101-$A$2+1)</f>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="15"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="15"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="15"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="15"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="15"/>
-        <v>2.8000000000000008E-3</v>
+        <v>1.4000000000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -6862,31 +9377,31 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:J16" si="16">E15+E$101/($A$101-$A$2+1)</f>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="16"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="16"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="16"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="16"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="16"/>
-        <v>3.0000000000000009E-3</v>
+        <v>1.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -6903,31 +9418,31 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:J17" si="17">E16+E$101/($A$101-$A$2+1)</f>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="17"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="17"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="17"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="17"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="17"/>
-        <v>3.200000000000001E-3</v>
+        <v>1.6000000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6944,31 +9459,31 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:J18" si="18">E17+E$101/($A$101-$A$2+1)</f>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="18"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="18"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="18"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="18"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="J18">
         <f t="shared" si="18"/>
-        <v>3.4000000000000011E-3</v>
+        <v>1.7000000000000008E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6985,31 +9500,31 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:J19" si="19">E18+E$101/($A$101-$A$2+1)</f>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="19"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="19"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="H19">
         <f t="shared" si="19"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="19"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="19"/>
-        <v>3.6000000000000012E-3</v>
+        <v>1.8000000000000009E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -7026,31 +9541,31 @@
       </c>
       <c r="D20">
         <f t="shared" si="20"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:J20" si="21">E19+E$101/($A$101-$A$2+1)</f>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="21"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="21"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="H20">
         <f t="shared" si="21"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="21"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="21"/>
-        <v>3.8000000000000013E-3</v>
+        <v>1.900000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -7067,31 +9582,31 @@
       </c>
       <c r="D21">
         <f t="shared" si="20"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:J21" si="22">E20+E$101/($A$101-$A$2+1)</f>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="22"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="22"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="22"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="22"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="22"/>
-        <v>4.000000000000001E-3</v>
+        <v>2.0000000000000011E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -7108,31 +9623,31 @@
       </c>
       <c r="D22">
         <f t="shared" si="20"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:J22" si="23">E21+E$101/($A$101-$A$2+1)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="23"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="23"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="23"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="I22">
         <f t="shared" si="23"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="23"/>
-        <v>4.2000000000000006E-3</v>
+        <v>2.1000000000000012E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -7149,31 +9664,31 @@
       </c>
       <c r="D23">
         <f t="shared" si="20"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:J23" si="24">E22+E$101/($A$101-$A$2+1)</f>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="24"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="24"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="H23">
         <f t="shared" si="24"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="24"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="24"/>
-        <v>4.4000000000000003E-3</v>
+        <v>2.2000000000000013E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -7190,31 +9705,31 @@
       </c>
       <c r="D24">
         <f t="shared" si="20"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:J24" si="25">E23+E$101/($A$101-$A$2+1)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="25"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="25"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="H24">
         <f t="shared" si="25"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="25"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="25"/>
-        <v>4.5999999999999999E-3</v>
+        <v>2.3000000000000013E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -7231,31 +9746,31 @@
       </c>
       <c r="D25">
         <f t="shared" si="20"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:J25" si="26">E24+E$101/($A$101-$A$2+1)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="26"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="26"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="H25">
         <f t="shared" si="26"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="I25">
         <f t="shared" si="26"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="26"/>
-        <v>4.7999999999999996E-3</v>
+        <v>2.4000000000000014E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -7272,31 +9787,31 @@
       </c>
       <c r="D26">
         <f t="shared" si="20"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:J26" si="27">E25+E$101/($A$101-$A$2+1)</f>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="27"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="27"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="27"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="27"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="27"/>
-        <v>4.9999999999999992E-3</v>
+        <v>2.5000000000000015E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -7313,31 +9828,31 @@
       </c>
       <c r="D27">
         <f t="shared" si="20"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:J27" si="28">E26+E$101/($A$101-$A$2+1)</f>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="28"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="28"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="28"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="28"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="28"/>
-        <v>5.1999999999999989E-3</v>
+        <v>2.6000000000000016E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -7354,31 +9869,31 @@
       </c>
       <c r="D28">
         <f t="shared" si="20"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:J28" si="29">E27+E$101/($A$101-$A$2+1)</f>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="29"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="29"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="29"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="29"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="29"/>
-        <v>5.3999999999999986E-3</v>
+        <v>2.7000000000000017E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -7395,31 +9910,31 @@
       </c>
       <c r="D29">
         <f t="shared" si="20"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="E29">
         <f t="shared" ref="E29:J29" si="30">E28+E$101/($A$101-$A$2+1)</f>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="30"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="30"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="30"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="30"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="30"/>
-        <v>5.5999999999999982E-3</v>
+        <v>2.8000000000000018E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -7436,31 +9951,31 @@
       </c>
       <c r="D30">
         <f t="shared" si="20"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:J30" si="31">E29+E$101/($A$101-$A$2+1)</f>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="31"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="31"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="31"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="31"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="31"/>
-        <v>5.7999999999999979E-3</v>
+        <v>2.9000000000000019E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -7477,31 +9992,31 @@
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:J31" si="32">E30+E$101/($A$101-$A$2+1)</f>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="32"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="32"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="H31">
         <f t="shared" si="32"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="I31">
         <f t="shared" si="32"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
       <c r="J31">
         <f t="shared" si="32"/>
-        <v>5.9999999999999975E-3</v>
+        <v>3.000000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -7518,31 +10033,31 @@
       </c>
       <c r="D32">
         <f t="shared" si="20"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="E32">
         <f t="shared" ref="E32:J32" si="33">E31+E$101/($A$101-$A$2+1)</f>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="33"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="G32">
         <f t="shared" si="33"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="H32">
         <f t="shared" si="33"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="I32">
         <f t="shared" si="33"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="33"/>
-        <v>6.1999999999999972E-3</v>
+        <v>3.1000000000000021E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -7559,31 +10074,31 @@
       </c>
       <c r="D33">
         <f t="shared" si="20"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:J33" si="34">E32+E$101/($A$101-$A$2+1)</f>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="34"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="34"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="34"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="34"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="34"/>
-        <v>6.3999999999999968E-3</v>
+        <v>3.2000000000000021E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -7600,31 +10115,31 @@
       </c>
       <c r="D34">
         <f t="shared" si="20"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:J34" si="35">E33+E$101/($A$101-$A$2+1)</f>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="35"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="G34">
         <f t="shared" si="35"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="H34">
         <f t="shared" si="35"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="I34">
         <f t="shared" si="35"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="35"/>
-        <v>6.5999999999999965E-3</v>
+        <v>3.3000000000000022E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -7641,31 +10156,31 @@
       </c>
       <c r="D35">
         <f t="shared" si="20"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:J35" si="36">E34+E$101/($A$101-$A$2+1)</f>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="36"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="G35">
         <f t="shared" si="36"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="H35">
         <f t="shared" si="36"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="I35">
         <f t="shared" si="36"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="36"/>
-        <v>6.7999999999999962E-3</v>
+        <v>3.4000000000000023E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -7682,31 +10197,31 @@
       </c>
       <c r="D36">
         <f t="shared" si="37"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:J36" si="38">E35+E$101/($A$101-$A$2+1)</f>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="38"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="38"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="38"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="38"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="38"/>
-        <v>6.9999999999999958E-3</v>
+        <v>3.5000000000000024E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -7723,31 +10238,31 @@
       </c>
       <c r="D37">
         <f t="shared" si="37"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:J37" si="39">E36+E$101/($A$101-$A$2+1)</f>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="39"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="G37">
         <f t="shared" si="39"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="H37">
         <f t="shared" si="39"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="I37">
         <f t="shared" si="39"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
       <c r="J37">
         <f t="shared" si="39"/>
-        <v>7.1999999999999955E-3</v>
+        <v>3.6000000000000025E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -7764,31 +10279,31 @@
       </c>
       <c r="D38">
         <f t="shared" si="37"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="E38">
         <f t="shared" ref="E38:J38" si="40">E37+E$101/($A$101-$A$2+1)</f>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="40"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="G38">
         <f t="shared" si="40"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="H38">
         <f t="shared" si="40"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="I38">
         <f t="shared" si="40"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
       <c r="J38">
         <f t="shared" si="40"/>
-        <v>7.3999999999999951E-3</v>
+        <v>3.7000000000000026E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -7805,31 +10320,31 @@
       </c>
       <c r="D39">
         <f t="shared" si="37"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:J39" si="41">E38+E$101/($A$101-$A$2+1)</f>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="41"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="41"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="41"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="41"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="41"/>
-        <v>7.5999999999999948E-3</v>
+        <v>3.8000000000000027E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -7846,31 +10361,31 @@
       </c>
       <c r="D40">
         <f t="shared" si="37"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="E40">
         <f t="shared" ref="E40:J40" si="42">E39+E$101/($A$101-$A$2+1)</f>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="42"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="G40">
         <f t="shared" si="42"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="H40">
         <f t="shared" si="42"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="I40">
         <f t="shared" si="42"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
       <c r="J40">
         <f t="shared" si="42"/>
-        <v>7.7999999999999944E-3</v>
+        <v>3.9000000000000028E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -7887,31 +10402,31 @@
       </c>
       <c r="D41">
         <f t="shared" si="37"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:J41" si="43">E40+E$101/($A$101-$A$2+1)</f>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="F41">
         <f t="shared" si="43"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="G41">
         <f t="shared" si="43"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="H41">
         <f t="shared" si="43"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="I41">
         <f t="shared" si="43"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
       <c r="J41">
         <f t="shared" si="43"/>
-        <v>7.999999999999995E-3</v>
+        <v>4.0000000000000029E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -7928,31 +10443,31 @@
       </c>
       <c r="D42">
         <f t="shared" si="37"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:J42" si="44">E41+E$101/($A$101-$A$2+1)</f>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="F42">
         <f t="shared" si="44"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="G42">
         <f t="shared" si="44"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="H42">
         <f t="shared" si="44"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="I42">
         <f t="shared" si="44"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="44"/>
-        <v>8.1999999999999955E-3</v>
+        <v>4.1000000000000029E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -7969,31 +10484,31 @@
       </c>
       <c r="D43">
         <f t="shared" si="37"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:J43" si="45">E42+E$101/($A$101-$A$2+1)</f>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="F43">
         <f t="shared" si="45"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="G43">
         <f t="shared" si="45"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="H43">
         <f t="shared" si="45"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="I43">
         <f t="shared" si="45"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="45"/>
-        <v>8.399999999999996E-3</v>
+        <v>4.200000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -8010,31 +10525,31 @@
       </c>
       <c r="D44">
         <f t="shared" si="37"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="E44">
         <f t="shared" ref="E44:J44" si="46">E43+E$101/($A$101-$A$2+1)</f>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="F44">
         <f t="shared" si="46"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="G44">
         <f t="shared" si="46"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="H44">
         <f t="shared" si="46"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="I44">
         <f t="shared" si="46"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
       <c r="J44">
         <f t="shared" si="46"/>
-        <v>8.5999999999999965E-3</v>
+        <v>4.3000000000000031E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -8051,31 +10566,31 @@
       </c>
       <c r="D45">
         <f t="shared" si="37"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45:J45" si="47">E44+E$101/($A$101-$A$2+1)</f>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="F45">
         <f t="shared" si="47"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="G45">
         <f t="shared" si="47"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="H45">
         <f t="shared" si="47"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="I45">
         <f t="shared" si="47"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
       <c r="J45">
         <f t="shared" si="47"/>
-        <v>8.7999999999999971E-3</v>
+        <v>4.4000000000000032E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -8092,31 +10607,31 @@
       </c>
       <c r="D46">
         <f t="shared" si="37"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="E46">
         <f t="shared" ref="E46:J46" si="48">E45+E$101/($A$101-$A$2+1)</f>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="F46">
         <f t="shared" si="48"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="G46">
         <f t="shared" si="48"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="H46">
         <f t="shared" si="48"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="I46">
         <f t="shared" si="48"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
       <c r="J46">
         <f t="shared" si="48"/>
-        <v>8.9999999999999976E-3</v>
+        <v>4.5000000000000033E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -8133,31 +10648,31 @@
       </c>
       <c r="D47">
         <f t="shared" si="37"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:J47" si="49">E46+E$101/($A$101-$A$2+1)</f>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="F47">
         <f t="shared" si="49"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="G47">
         <f t="shared" si="49"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="H47">
         <f t="shared" si="49"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="49"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
       <c r="J47">
         <f t="shared" si="49"/>
-        <v>9.1999999999999981E-3</v>
+        <v>4.6000000000000034E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -8174,31 +10689,31 @@
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="E48">
         <f t="shared" ref="E48:J48" si="50">E47+E$101/($A$101-$A$2+1)</f>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="F48">
         <f t="shared" si="50"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="G48">
         <f t="shared" si="50"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="H48">
         <f t="shared" si="50"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="I48">
         <f t="shared" si="50"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
       <c r="J48">
         <f t="shared" si="50"/>
-        <v>9.3999999999999986E-3</v>
+        <v>4.7000000000000035E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -8215,31 +10730,31 @@
       </c>
       <c r="D49">
         <f t="shared" si="37"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="E49">
         <f t="shared" ref="E49:J49" si="51">E48+E$101/($A$101-$A$2+1)</f>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="F49">
         <f t="shared" si="51"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="G49">
         <f t="shared" si="51"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="H49">
         <f t="shared" si="51"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="I49">
         <f t="shared" si="51"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
       <c r="J49">
         <f t="shared" si="51"/>
-        <v>9.5999999999999992E-3</v>
+        <v>4.8000000000000036E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -8256,31 +10771,31 @@
       </c>
       <c r="D50">
         <f t="shared" si="37"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:J50" si="52">E49+E$101/($A$101-$A$2+1)</f>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="F50">
         <f t="shared" si="52"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="G50">
         <f t="shared" si="52"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="H50">
         <f t="shared" si="52"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="I50">
         <f t="shared" si="52"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
       <c r="J50">
         <f t="shared" si="52"/>
-        <v>9.7999999999999997E-3</v>
+        <v>4.9000000000000037E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -8297,31 +10812,31 @@
       </c>
       <c r="D51">
         <f t="shared" si="37"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="E51">
         <f t="shared" ref="E51:J51" si="53">E50+E$101/($A$101-$A$2+1)</f>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="F51">
         <f t="shared" si="53"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="G51">
         <f t="shared" si="53"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="H51">
         <f t="shared" si="53"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="I51">
         <f t="shared" si="53"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="J51">
         <f t="shared" si="53"/>
-        <v>0.01</v>
+        <v>5.0000000000000037E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -8338,31 +10853,31 @@
       </c>
       <c r="D52">
         <f t="shared" si="54"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="E52">
         <f t="shared" ref="E52:J52" si="55">E51+E$101/($A$101-$A$2+1)</f>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="55"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="G52">
         <f t="shared" si="55"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="H52">
         <f t="shared" si="55"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="I52">
         <f t="shared" si="55"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="55"/>
-        <v>1.0200000000000001E-2</v>
+        <v>5.1000000000000038E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -8379,31 +10894,31 @@
       </c>
       <c r="D53">
         <f t="shared" si="54"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:J53" si="56">E52+E$101/($A$101-$A$2+1)</f>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="56"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="G53">
         <f t="shared" si="56"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="H53">
         <f t="shared" si="56"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="56"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
       <c r="J53">
         <f t="shared" si="56"/>
-        <v>1.0400000000000001E-2</v>
+        <v>5.2000000000000039E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -8420,31 +10935,31 @@
       </c>
       <c r="D54">
         <f t="shared" si="54"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="E54">
         <f t="shared" ref="E54:J54" si="57">E53+E$101/($A$101-$A$2+1)</f>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="57"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="G54">
         <f t="shared" si="57"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="H54">
         <f t="shared" si="57"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="I54">
         <f t="shared" si="57"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="57"/>
-        <v>1.0600000000000002E-2</v>
+        <v>5.300000000000004E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -8461,31 +10976,31 @@
       </c>
       <c r="D55">
         <f t="shared" si="54"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="E55">
         <f t="shared" ref="E55:J55" si="58">E54+E$101/($A$101-$A$2+1)</f>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="F55">
         <f t="shared" si="58"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="G55">
         <f t="shared" si="58"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="H55">
         <f t="shared" si="58"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="I55">
         <f t="shared" si="58"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="58"/>
-        <v>1.0800000000000002E-2</v>
+        <v>5.4000000000000041E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -8502,31 +11017,31 @@
       </c>
       <c r="D56">
         <f t="shared" si="54"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:J56" si="59">E55+E$101/($A$101-$A$2+1)</f>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="59"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="59"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="H56">
         <f t="shared" si="59"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="I56">
         <f t="shared" si="59"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
       <c r="J56">
         <f t="shared" si="59"/>
-        <v>1.1000000000000003E-2</v>
+        <v>5.5000000000000042E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -8543,31 +11058,31 @@
       </c>
       <c r="D57">
         <f t="shared" si="54"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="E57">
         <f t="shared" ref="E57:J57" si="60">E56+E$101/($A$101-$A$2+1)</f>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="60"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="60"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="H57">
         <f t="shared" si="60"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="60"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
       <c r="J57">
         <f t="shared" si="60"/>
-        <v>1.1200000000000003E-2</v>
+        <v>5.6000000000000043E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -8584,31 +11099,31 @@
       </c>
       <c r="D58">
         <f t="shared" si="54"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="E58">
         <f t="shared" ref="E58:J58" si="61">E57+E$101/($A$101-$A$2+1)</f>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="61"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="61"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="H58">
         <f t="shared" si="61"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="I58">
         <f t="shared" si="61"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
       <c r="J58">
         <f t="shared" si="61"/>
-        <v>1.1400000000000004E-2</v>
+        <v>5.7000000000000044E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -8625,31 +11140,31 @@
       </c>
       <c r="D59">
         <f t="shared" si="54"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="E59">
         <f t="shared" ref="E59:J59" si="62">E58+E$101/($A$101-$A$2+1)</f>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="62"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="62"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="H59">
         <f t="shared" si="62"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="I59">
         <f t="shared" si="62"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
       <c r="J59">
         <f t="shared" si="62"/>
-        <v>1.1600000000000004E-2</v>
+        <v>5.8000000000000045E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -8666,31 +11181,31 @@
       </c>
       <c r="D60">
         <f t="shared" si="54"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:J60" si="63">E59+E$101/($A$101-$A$2+1)</f>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="F60">
         <f t="shared" si="63"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="G60">
         <f t="shared" si="63"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="63"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="63"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
       <c r="J60">
         <f t="shared" si="63"/>
-        <v>1.1800000000000005E-2</v>
+        <v>5.9000000000000045E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -8707,31 +11222,31 @@
       </c>
       <c r="D61">
         <f t="shared" si="54"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="E61">
         <f t="shared" ref="E61:J61" si="64">E60+E$101/($A$101-$A$2+1)</f>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="64"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="G61">
         <f t="shared" si="64"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="H61">
         <f t="shared" si="64"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="I61">
         <f t="shared" si="64"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="64"/>
-        <v>1.2000000000000005E-2</v>
+        <v>6.0000000000000046E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -8748,31 +11263,31 @@
       </c>
       <c r="D62">
         <f t="shared" si="54"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:J62" si="65">E61+E$101/($A$101-$A$2+1)</f>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="65"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="G62">
         <f t="shared" si="65"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="H62">
         <f t="shared" si="65"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="I62">
         <f t="shared" si="65"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
       <c r="J62">
         <f t="shared" si="65"/>
-        <v>1.2200000000000006E-2</v>
+        <v>6.1000000000000047E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -8789,31 +11304,31 @@
       </c>
       <c r="D63">
         <f t="shared" si="54"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ref="E63:J63" si="66">E62+E$101/($A$101-$A$2+1)</f>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="66"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="G63">
         <f t="shared" si="66"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="H63">
         <f t="shared" si="66"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="66"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
       <c r="J63">
         <f t="shared" si="66"/>
-        <v>1.2400000000000007E-2</v>
+        <v>6.2000000000000048E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -8830,31 +11345,31 @@
       </c>
       <c r="D64">
         <f t="shared" si="54"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:J64" si="67">E63+E$101/($A$101-$A$2+1)</f>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="67"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="G64">
         <f t="shared" si="67"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="H64">
         <f t="shared" si="67"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="67"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
       <c r="J64">
         <f t="shared" si="67"/>
-        <v>1.2600000000000007E-2</v>
+        <v>6.3000000000000042E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -8871,31 +11386,31 @@
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ref="E65:J65" si="68">E64+E$101/($A$101-$A$2+1)</f>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="68"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="G65">
         <f t="shared" si="68"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="H65">
         <f t="shared" si="68"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="68"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
       <c r="J65">
         <f t="shared" si="68"/>
-        <v>1.2800000000000008E-2</v>
+        <v>6.4000000000000043E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -8912,31 +11427,31 @@
       </c>
       <c r="D66">
         <f t="shared" si="54"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:J66" si="69">E65+E$101/($A$101-$A$2+1)</f>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="69"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="G66">
         <f t="shared" si="69"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="H66">
         <f t="shared" si="69"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="I66">
         <f t="shared" si="69"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
       <c r="J66">
         <f t="shared" si="69"/>
-        <v>1.3000000000000008E-2</v>
+        <v>6.5000000000000044E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -8953,31 +11468,31 @@
       </c>
       <c r="D67">
         <f t="shared" si="54"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:J67" si="70">E66+E$101/($A$101-$A$2+1)</f>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="70"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="G67">
         <f t="shared" si="70"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="H67">
         <f t="shared" si="70"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="I67">
         <f t="shared" si="70"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="70"/>
-        <v>1.3200000000000009E-2</v>
+        <v>6.6000000000000045E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -8994,31 +11509,31 @@
       </c>
       <c r="D68">
         <f t="shared" si="71"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:J68" si="72">E67+E$101/($A$101-$A$2+1)</f>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="72"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="G68">
         <f t="shared" si="72"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="H68">
         <f t="shared" si="72"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="I68">
         <f t="shared" si="72"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
       <c r="J68">
         <f t="shared" si="72"/>
-        <v>1.3400000000000009E-2</v>
+        <v>6.7000000000000046E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -9035,31 +11550,31 @@
       </c>
       <c r="D69">
         <f t="shared" si="71"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:J69" si="73">E68+E$101/($A$101-$A$2+1)</f>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="F69">
         <f t="shared" si="73"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="G69">
         <f t="shared" si="73"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="H69">
         <f t="shared" si="73"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="I69">
         <f t="shared" si="73"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
       <c r="J69">
         <f t="shared" si="73"/>
-        <v>1.360000000000001E-2</v>
+        <v>6.8000000000000047E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -9076,31 +11591,31 @@
       </c>
       <c r="D70">
         <f t="shared" si="71"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="E70">
         <f t="shared" ref="E70:J70" si="74">E69+E$101/($A$101-$A$2+1)</f>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="F70">
         <f t="shared" si="74"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="G70">
         <f t="shared" si="74"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="H70">
         <f t="shared" si="74"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="I70">
         <f t="shared" si="74"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
       <c r="J70">
         <f t="shared" si="74"/>
-        <v>1.380000000000001E-2</v>
+        <v>6.9000000000000047E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -9117,31 +11632,31 @@
       </c>
       <c r="D71">
         <f t="shared" si="71"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:J71" si="75">E70+E$101/($A$101-$A$2+1)</f>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="F71">
         <f t="shared" si="75"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="G71">
         <f t="shared" si="75"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="H71">
         <f t="shared" si="75"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="I71">
         <f t="shared" si="75"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
       <c r="J71">
         <f t="shared" si="75"/>
-        <v>1.4000000000000011E-2</v>
+        <v>7.0000000000000048E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -9158,31 +11673,31 @@
       </c>
       <c r="D72">
         <f t="shared" si="71"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:J72" si="76">E71+E$101/($A$101-$A$2+1)</f>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="F72">
         <f t="shared" si="76"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="G72">
         <f t="shared" si="76"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="H72">
         <f t="shared" si="76"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="I72">
         <f t="shared" si="76"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
       <c r="J72">
         <f t="shared" si="76"/>
-        <v>1.4200000000000011E-2</v>
+        <v>7.1000000000000049E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -9199,31 +11714,31 @@
       </c>
       <c r="D73">
         <f t="shared" si="71"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="E73">
         <f t="shared" ref="E73:J73" si="77">E72+E$101/($A$101-$A$2+1)</f>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="F73">
         <f t="shared" si="77"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="G73">
         <f t="shared" si="77"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="77"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="77"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="77"/>
-        <v>1.4400000000000012E-2</v>
+        <v>7.200000000000005E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -9240,31 +11755,31 @@
       </c>
       <c r="D74">
         <f t="shared" si="71"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="E74">
         <f t="shared" ref="E74:J74" si="78">E73+E$101/($A$101-$A$2+1)</f>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="F74">
         <f t="shared" si="78"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="G74">
         <f t="shared" si="78"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="H74">
         <f t="shared" si="78"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="I74">
         <f t="shared" si="78"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
       <c r="J74">
         <f t="shared" si="78"/>
-        <v>1.4600000000000012E-2</v>
+        <v>7.3000000000000051E-2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -9281,31 +11796,31 @@
       </c>
       <c r="D75">
         <f t="shared" si="71"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="E75">
         <f t="shared" ref="E75:J75" si="79">E74+E$101/($A$101-$A$2+1)</f>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="F75">
         <f t="shared" si="79"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="G75">
         <f t="shared" si="79"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="H75">
         <f t="shared" si="79"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="I75">
         <f t="shared" si="79"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
       <c r="J75">
         <f t="shared" si="79"/>
-        <v>1.4800000000000013E-2</v>
+        <v>7.4000000000000052E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -9322,31 +11837,31 @@
       </c>
       <c r="D76">
         <f t="shared" si="71"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:J76" si="80">E75+E$101/($A$101-$A$2+1)</f>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="F76">
         <f t="shared" si="80"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="G76">
         <f t="shared" si="80"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="H76">
         <f t="shared" si="80"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="I76">
         <f t="shared" si="80"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
       <c r="J76">
         <f t="shared" si="80"/>
-        <v>1.5000000000000013E-2</v>
+        <v>7.5000000000000053E-2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -9363,31 +11878,31 @@
       </c>
       <c r="D77">
         <f t="shared" si="71"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="E77">
         <f t="shared" ref="E77:J77" si="81">E76+E$101/($A$101-$A$2+1)</f>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="F77">
         <f t="shared" si="81"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="G77">
         <f t="shared" si="81"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="H77">
         <f t="shared" si="81"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="I77">
         <f t="shared" si="81"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
       <c r="J77">
         <f t="shared" si="81"/>
-        <v>1.5200000000000014E-2</v>
+        <v>7.6000000000000054E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -9404,31 +11919,31 @@
       </c>
       <c r="D78">
         <f t="shared" si="71"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="E78">
         <f t="shared" ref="E78:J78" si="82">E77+E$101/($A$101-$A$2+1)</f>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="F78">
         <f t="shared" si="82"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="G78">
         <f t="shared" si="82"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="H78">
         <f t="shared" si="82"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="I78">
         <f t="shared" si="82"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
       <c r="J78">
         <f t="shared" si="82"/>
-        <v>1.5400000000000014E-2</v>
+        <v>7.7000000000000055E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -9445,31 +11960,31 @@
       </c>
       <c r="D79">
         <f t="shared" si="71"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="E79">
         <f t="shared" ref="E79:J79" si="83">E78+E$101/($A$101-$A$2+1)</f>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="F79">
         <f t="shared" si="83"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="G79">
         <f t="shared" si="83"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="H79">
         <f t="shared" si="83"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="I79">
         <f t="shared" si="83"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
       <c r="J79">
         <f t="shared" si="83"/>
-        <v>1.5600000000000015E-2</v>
+        <v>7.8000000000000055E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -9486,31 +12001,31 @@
       </c>
       <c r="D80">
         <f t="shared" si="71"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="E80">
         <f t="shared" ref="E80:J80" si="84">E79+E$101/($A$101-$A$2+1)</f>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="F80">
         <f t="shared" si="84"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="G80">
         <f t="shared" si="84"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="H80">
         <f t="shared" si="84"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="I80">
         <f t="shared" si="84"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
       <c r="J80">
         <f t="shared" si="84"/>
-        <v>1.5800000000000015E-2</v>
+        <v>7.9000000000000056E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -9527,31 +12042,31 @@
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="E81">
         <f t="shared" ref="E81:J81" si="85">E80+E$101/($A$101-$A$2+1)</f>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="F81">
         <f t="shared" si="85"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="G81">
         <f t="shared" si="85"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="H81">
         <f t="shared" si="85"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="I81">
         <f t="shared" si="85"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="85"/>
-        <v>1.6000000000000014E-2</v>
+        <v>8.0000000000000057E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -9568,31 +12083,31 @@
       </c>
       <c r="D82">
         <f t="shared" si="71"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="E82">
         <f t="shared" ref="E82:J82" si="86">E81+E$101/($A$101-$A$2+1)</f>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="F82">
         <f t="shared" si="86"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="G82">
         <f t="shared" si="86"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="H82">
         <f t="shared" si="86"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="I82">
         <f t="shared" si="86"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
       <c r="J82">
         <f t="shared" si="86"/>
-        <v>1.6200000000000013E-2</v>
+        <v>8.1000000000000058E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -9609,31 +12124,31 @@
       </c>
       <c r="D83">
         <f t="shared" si="71"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:J83" si="87">E82+E$101/($A$101-$A$2+1)</f>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="F83">
         <f t="shared" si="87"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="G83">
         <f t="shared" si="87"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="H83">
         <f t="shared" si="87"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="I83">
         <f t="shared" si="87"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="87"/>
-        <v>1.6400000000000012E-2</v>
+        <v>8.2000000000000059E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -9650,31 +12165,31 @@
       </c>
       <c r="D84">
         <f t="shared" si="88"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="E84">
         <f t="shared" ref="E84:J84" si="89">E83+E$101/($A$101-$A$2+1)</f>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="F84">
         <f t="shared" si="89"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="G84">
         <f t="shared" si="89"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="H84">
         <f t="shared" si="89"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="I84">
         <f t="shared" si="89"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
       <c r="J84">
         <f t="shared" si="89"/>
-        <v>1.6600000000000011E-2</v>
+        <v>8.300000000000006E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -9691,31 +12206,31 @@
       </c>
       <c r="D85">
         <f t="shared" si="88"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="E85">
         <f t="shared" ref="E85:J85" si="90">E84+E$101/($A$101-$A$2+1)</f>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="F85">
         <f t="shared" si="90"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="G85">
         <f t="shared" si="90"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="H85">
         <f t="shared" si="90"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="I85">
         <f t="shared" si="90"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
       <c r="J85">
         <f t="shared" si="90"/>
-        <v>1.6800000000000009E-2</v>
+        <v>8.4000000000000061E-2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -9732,31 +12247,31 @@
       </c>
       <c r="D86">
         <f t="shared" si="88"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="E86">
         <f t="shared" ref="E86:J86" si="91">E85+E$101/($A$101-$A$2+1)</f>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="F86">
         <f t="shared" si="91"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="91"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="H86">
         <f t="shared" si="91"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="I86">
         <f t="shared" si="91"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
       <c r="J86">
         <f t="shared" si="91"/>
-        <v>1.7000000000000008E-2</v>
+        <v>8.5000000000000062E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -9773,31 +12288,31 @@
       </c>
       <c r="D87">
         <f t="shared" si="88"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="E87">
         <f t="shared" ref="E87:J87" si="92">E86+E$101/($A$101-$A$2+1)</f>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="F87">
         <f t="shared" si="92"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="G87">
         <f t="shared" si="92"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="H87">
         <f t="shared" si="92"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="I87">
         <f t="shared" si="92"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="92"/>
-        <v>1.7200000000000007E-2</v>
+        <v>8.6000000000000063E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -9814,31 +12329,31 @@
       </c>
       <c r="D88">
         <f t="shared" si="88"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="E88">
         <f t="shared" ref="E88:J88" si="93">E87+E$101/($A$101-$A$2+1)</f>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="F88">
         <f t="shared" si="93"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="G88">
         <f t="shared" si="93"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="H88">
         <f t="shared" si="93"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="I88">
         <f t="shared" si="93"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
       <c r="J88">
         <f t="shared" si="93"/>
-        <v>1.7400000000000006E-2</v>
+        <v>8.7000000000000063E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -9855,31 +12370,31 @@
       </c>
       <c r="D89">
         <f t="shared" si="88"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="E89">
         <f t="shared" ref="E89:J89" si="94">E88+E$101/($A$101-$A$2+1)</f>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="F89">
         <f t="shared" si="94"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="G89">
         <f t="shared" si="94"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="H89">
         <f t="shared" si="94"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="I89">
         <f t="shared" si="94"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
       <c r="J89">
         <f t="shared" si="94"/>
-        <v>1.7600000000000005E-2</v>
+        <v>8.8000000000000064E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -9896,31 +12411,31 @@
       </c>
       <c r="D90">
         <f t="shared" si="88"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="E90">
         <f t="shared" ref="E90:J90" si="95">E89+E$101/($A$101-$A$2+1)</f>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="F90">
         <f t="shared" si="95"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="G90">
         <f t="shared" si="95"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="H90">
         <f t="shared" si="95"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="I90">
         <f t="shared" si="95"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
       <c r="J90">
         <f t="shared" si="95"/>
-        <v>1.7800000000000003E-2</v>
+        <v>8.9000000000000065E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -9937,31 +12452,31 @@
       </c>
       <c r="D91">
         <f t="shared" si="88"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="E91">
         <f t="shared" ref="E91:J91" si="96">E90+E$101/($A$101-$A$2+1)</f>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="F91">
         <f t="shared" si="96"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="G91">
         <f t="shared" si="96"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="H91">
         <f t="shared" si="96"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="I91">
         <f t="shared" si="96"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
       <c r="J91">
         <f t="shared" si="96"/>
-        <v>1.8000000000000002E-2</v>
+        <v>9.0000000000000066E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -9978,31 +12493,31 @@
       </c>
       <c r="D92">
         <f t="shared" si="88"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="E92">
         <f t="shared" ref="E92:J92" si="97">E91+E$101/($A$101-$A$2+1)</f>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="F92">
         <f t="shared" si="97"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="G92">
         <f t="shared" si="97"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="H92">
         <f t="shared" si="97"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="I92">
         <f t="shared" si="97"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
       <c r="J92">
         <f t="shared" si="97"/>
-        <v>1.8200000000000001E-2</v>
+        <v>9.1000000000000067E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -10019,31 +12534,31 @@
       </c>
       <c r="D93">
         <f t="shared" si="88"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="E93">
         <f t="shared" ref="E93:J93" si="98">E92+E$101/($A$101-$A$2+1)</f>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="F93">
         <f t="shared" si="98"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="G93">
         <f t="shared" si="98"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="H93">
         <f t="shared" si="98"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="I93">
         <f t="shared" si="98"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
       <c r="J93">
         <f t="shared" si="98"/>
-        <v>1.84E-2</v>
+        <v>9.2000000000000068E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -10060,31 +12575,31 @@
       </c>
       <c r="D94">
         <f t="shared" si="88"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="E94">
         <f t="shared" ref="E94:J94" si="99">E93+E$101/($A$101-$A$2+1)</f>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="F94">
         <f t="shared" si="99"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="G94">
         <f t="shared" si="99"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="H94">
         <f t="shared" si="99"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="I94">
         <f t="shared" si="99"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="99"/>
-        <v>1.8599999999999998E-2</v>
+        <v>9.3000000000000069E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -10101,31 +12616,31 @@
       </c>
       <c r="D95">
         <f t="shared" si="88"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="E95">
         <f t="shared" ref="E95:J95" si="100">E94+E$101/($A$101-$A$2+1)</f>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="F95">
         <f t="shared" si="100"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="G95">
         <f t="shared" si="100"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="H95">
         <f t="shared" si="100"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="I95">
         <f t="shared" si="100"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
       <c r="J95">
         <f t="shared" si="100"/>
-        <v>1.8799999999999997E-2</v>
+        <v>9.400000000000007E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -10142,31 +12657,31 @@
       </c>
       <c r="D96">
         <f t="shared" si="88"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="E96">
         <f t="shared" ref="E96:J96" si="101">E95+E$101/($A$101-$A$2+1)</f>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="F96">
         <f t="shared" si="101"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="G96">
         <f t="shared" si="101"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="101"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="I96">
         <f t="shared" si="101"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
       <c r="J96">
         <f t="shared" si="101"/>
-        <v>1.8999999999999996E-2</v>
+        <v>9.500000000000007E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -10183,31 +12698,31 @@
       </c>
       <c r="D97">
         <f t="shared" si="88"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="E97">
         <f t="shared" ref="E97:J97" si="102">E96+E$101/($A$101-$A$2+1)</f>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="F97">
         <f t="shared" si="102"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="G97">
         <f t="shared" si="102"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="H97">
         <f t="shared" si="102"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="I97">
         <f t="shared" si="102"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
       <c r="J97">
         <f t="shared" si="102"/>
-        <v>1.9199999999999995E-2</v>
+        <v>9.6000000000000071E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -10224,31 +12739,31 @@
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:J98" si="103">E97+E$101/($A$101-$A$2+1)</f>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="F98">
         <f t="shared" si="103"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="G98">
         <f t="shared" si="103"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="103"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="I98">
         <f t="shared" si="103"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
       <c r="J98">
         <f t="shared" si="103"/>
-        <v>1.9399999999999994E-2</v>
+        <v>9.7000000000000072E-2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -10265,31 +12780,31 @@
       </c>
       <c r="D99">
         <f t="shared" si="88"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="E99">
         <f t="shared" ref="E99:J99" si="104">E98+E$101/($A$101-$A$2+1)</f>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="F99">
         <f t="shared" si="104"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="G99">
         <f t="shared" si="104"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="H99">
         <f t="shared" si="104"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="I99">
         <f t="shared" si="104"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
       <c r="J99">
         <f t="shared" si="104"/>
-        <v>1.9599999999999992E-2</v>
+        <v>9.8000000000000073E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -10306,31 +12821,31 @@
       </c>
       <c r="D100">
         <f t="shared" si="105"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="E100">
         <f t="shared" ref="E100:J100" si="106">E99+E$101/($A$101-$A$2+1)</f>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="106"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="G100">
         <f t="shared" si="106"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="H100">
         <f t="shared" si="106"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="I100">
         <f t="shared" si="106"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
       <c r="J100">
         <f t="shared" si="106"/>
-        <v>1.9799999999999991E-2</v>
+        <v>9.9000000000000074E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -10344,25 +12859,25 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="J101">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -10370,7 +12885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD9F6B7-8662-4A3D-A0AE-33D8C88B1CB1}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -10720,7 +13235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B113E7EB-5609-4A92-B268-BD8E5D3DEF93}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -10989,887 +13504,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C50BEA-4E18-4B30-B6D3-E637EFCA4A24}">
-  <dimension ref="A1:C85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A66:C66"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
+++ b/DGE_CRED_Model/ExcelFiles/ModelSimulationandCalibration3Sectorsand2Regions.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/DGE-CRED/DGE_CRED_Model/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2c93ce427878e7/Dokumente/GitHub/Vietnam_RBC_model/DGE_CRED_Model/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FAD918B-5518-4D9F-826F-6D2F57A90155}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="14_{5D0104A8-120A-4634-9F7D-669A0CEC349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7C03A4D-4CC9-4158-9E2F-AED362F75A0F}"/>
   <bookViews>
-    <workbookView xWindow="-37005" yWindow="-165" windowWidth="28800" windowHeight="15375" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
+    <workbookView xWindow="-38520" yWindow="-1680" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{682A2A63-2C28-4521-89E3-584100870803}"/>
   </bookViews>
   <sheets>
-    <sheet name="Drought" sheetId="10" r:id="rId1"/>
-    <sheet name="Start" sheetId="1" r:id="rId2"/>
-    <sheet name="Terminal" sheetId="2" r:id="rId3"/>
-    <sheet name="Baseline" sheetId="6" r:id="rId4"/>
+    <sheet name="Start" sheetId="1" r:id="rId1"/>
+    <sheet name="Terminal" sheetId="2" r:id="rId2"/>
+    <sheet name="Baseline" sheetId="6" r:id="rId3"/>
+    <sheet name="Drought" sheetId="10" r:id="rId4"/>
     <sheet name="Temperature" sheetId="7" r:id="rId5"/>
     <sheet name="SeaLevel" sheetId="8" r:id="rId6"/>
     <sheet name="Adaptation" sheetId="9" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="249">
   <si>
     <t>Parameter</t>
   </si>
@@ -789,9 +789,6 @@
   </si>
   <si>
     <t>exo_GA_3_2</t>
-  </si>
-  <si>
-    <t>Drought</t>
   </si>
 </sst>
 </file>
@@ -1152,1630 +1149,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19758DA2-EB99-4BF8-9457-93A2F80A0458}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9A47B1-1A66-4C77-92E3-06B052F5798C}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C100"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f>$A3*B$101/($A$101-$A$2+1)+D2</f>
-        <v>0.18</v>
-      </c>
-      <c r="C2">
-        <f>$A3*C$101/($A$101-$A$2+1)+D2</f>
-        <v>0.18</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">$A4*B$101/($A$101-$A$2+1)+D3</f>
-        <v>0.24</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">$A4*C$101/($A$101-$A$2+1)+D3</f>
-        <v>0.24</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1.7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16">
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>2.36</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>2.36</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.42</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21">
+        <f>1-SUM(B16:B20)</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>0.15</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25">
+        <v>0.16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>0.16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28">
+        <f>1-SUM(B23:B27)</f>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
         <v>0.6</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
         <v>0.6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2.66</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>2.66</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>2.96</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>2.96</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B32">
+        <v>0.65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1.02</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>3.26</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>3.26</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34">
+        <v>0.65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1.32</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>1.32</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B37">
+        <v>0.95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1.38</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1.38</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>3.56</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>3.56</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>1.62</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>1.62</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>1.68</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>1.68</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.74</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>1.74</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>3.8600000000000003</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>3.8600000000000003</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>1.92</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>1.98</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B40">
+        <v>0.85</v>
+      </c>
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>2.04</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>2.04</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41">
+        <v>1.05</v>
+      </c>
+      <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>4.16</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>4.16</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>2.34</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>4.46</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>4.46</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>2.52</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>42</v>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>150</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>2.64</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>2.64</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>2.7</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>4.76</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>4.76</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>2.82</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>2.82</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>2.88</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>2.88</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2.94</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>2.94</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="1"/>
-        <v>5.0600000000000005</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>3.12</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="1"/>
-        <v>3.12</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>3.18</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="1"/>
-        <v>3.18</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>3.24</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="1"/>
-        <v>3.24</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>3.3</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>5.3599999999999994</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="1"/>
-        <v>5.3599999999999994</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>3.42</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="1"/>
-        <v>3.42</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>3.48</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="1"/>
-        <v>3.48</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>3.54</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="1"/>
-        <v>3.54</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>5.66</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="1"/>
-        <v>5.66</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>3.72</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="1"/>
-        <v>3.72</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>3.78</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="1"/>
-        <v>3.78</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="1"/>
-        <v>3.84</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="1"/>
-        <v>3.9</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>5.96</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="1"/>
-        <v>5.96</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="1"/>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B100" si="2">$A68*B$101/($A$101-$A$2+1)+D67</f>
-        <v>4.08</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C100" si="3">$A68*C$101/($A$101-$A$2+1)+D67</f>
-        <v>4.08</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
-        <v>6.26</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>6.26</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
-        <v>4.32</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>4.32</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
-        <v>4.38</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>4.38</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
-        <v>6.56</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>6.56</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
-        <v>4.62</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>4.62</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
-        <v>4.68</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>4.68</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>4.74</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
-        <v>4.8</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
-        <v>6.86</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>6.86</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
-        <v>4.92</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>4.92</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
-        <v>5.04</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>5.04</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
-        <v>7.16</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>7.16</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
-        <v>5.22</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>5.22</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
-        <v>5.28</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>5.28</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
-        <v>5.34</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>5.34</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
-        <v>7.46</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
-        <v>7.46</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
-        <v>5.52</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
-        <v>5.52</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
-        <v>5.58</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
-        <v>5.58</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
-        <v>5.64</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
-        <v>5.64</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
-        <v>5.7</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
-        <v>7.76</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="3"/>
-        <v>7.76</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
-        <v>5.82</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
-        <v>5.82</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
-        <v>5.88</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="3"/>
-        <v>5.88</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="2"/>
-        <v>5.94</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="3"/>
-        <v>5.94</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="2"/>
-        <v>8.0599999999999987</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="3"/>
-        <v>8.0599999999999987</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>101</v>
-      </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3633,16 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -3657,493 +2492,27 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9A47B1-1A66-4C77-92E3-06B052F5798C}">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="76.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1.7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16">
-        <v>0.05</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17">
-        <v>0.11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18">
-        <v>0.2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19">
-        <v>0.2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21">
-        <f>1-SUM(B16:B20)</f>
-        <v>0.29999999999999993</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23">
-        <v>0.15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24">
-        <v>0.25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26">
-        <v>0.1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27">
-        <v>0.1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28">
-        <f>1-SUM(B23:B27)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>0.5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>0.5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>0.65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34">
-        <v>0.65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <v>0.95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40">
-        <v>0.85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41">
-        <v>1.05</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42">
-        <v>0.95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G43" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A29:C29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C5236F-B101-4D34-AD7D-A1BDAF4CB3FE}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4374,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9BB5E-2AB6-47A4-B3C3-1146DAC57027}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -5693,6 +4062,1391 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368B6AB4-F3D8-42F0-ADCD-ABBD2D76DA06}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>($A2-1)*B$101/($A$101-$A$2+1)+$D2</f>
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C65" si="0">($A2-1)*C$101/($A$101-$A$2+1)+$D2</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B22" si="1">($A3-1)*B$101/($A$101-$A$2+1)+$D3</f>
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.84</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:B42" si="2">($A23-1)*B$101/($A$101-$A$2+1)+$D23</f>
+        <v>1.32</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>3.44</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.56</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.62</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.68</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="2"/>
+        <v>3.74</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>3.74</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.86</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.92</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.98</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="2"/>
+        <v>4.04</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>4.04</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="2"/>
+        <v>4.34</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>4.34</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="2"/>
+        <v>2.46</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" ref="B43:B62" si="3">($A43-1)*B$101/($A$101-$A$2+1)+$D43</f>
+        <v>2.52</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="3"/>
+        <v>2.58</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="3"/>
+        <v>2.76</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="3"/>
+        <v>2.82</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="3"/>
+        <v>3.06</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="3"/>
+        <v>3.12</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="3"/>
+        <v>3.18</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="3"/>
+        <v>5.24</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>5.24</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="3"/>
+        <v>3.36</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="3"/>
+        <v>3.42</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="3"/>
+        <v>3.48</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>5.54</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>5.54</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>3.66</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" ref="B63:C82" si="4">($A63-1)*B$101/($A$101-$A$2+1)+$D63</f>
+        <v>3.72</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="4"/>
+        <v>3.78</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="4"/>
+        <v>5.84</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>5.84</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="4"/>
+        <v>3.9</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="4"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="4"/>
+        <v>3.96</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="4"/>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="4"/>
+        <v>4.08</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="4"/>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" si="4"/>
+        <v>6.14</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="4"/>
+        <v>6.14</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="4"/>
+        <v>4.26</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="4"/>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="4"/>
+        <v>4.32</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="4"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="4"/>
+        <v>4.38</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="4"/>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="4"/>
+        <v>6.44</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="4"/>
+        <v>6.44</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="4"/>
+        <v>4.62</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="4"/>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="4"/>
+        <v>4.68</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="4"/>
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="4"/>
+        <v>6.74</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="4"/>
+        <v>6.74</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="4"/>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" ref="B83:C100" si="5">($A83-1)*B$101/($A$101-$A$2+1)+$D83</f>
+        <v>4.92</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="5"/>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="5"/>
+        <v>7.04</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="5"/>
+        <v>7.04</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="5"/>
+        <v>5.16</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="5"/>
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="5"/>
+        <v>5.22</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="5"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="5"/>
+        <v>5.28</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="5"/>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="5"/>
+        <v>7.34</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="5"/>
+        <v>7.34</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="5"/>
+        <v>5.46</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="5"/>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="5"/>
+        <v>5.52</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="5"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="5"/>
+        <v>5.58</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="5"/>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="5"/>
+        <v>7.64</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="5"/>
+        <v>7.64</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="5"/>
+        <v>5.76</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="5"/>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="5"/>
+        <v>5.82</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="5"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="5"/>
+        <v>5.88</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="5"/>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="5"/>
+        <v>7.94</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="5"/>
+        <v>7.94</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8752,7 +8506,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J100"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8803,31 +8557,31 @@
       </c>
       <c r="D2" s="3">
         <f>D$101/($A$101-$A$2+1)</f>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:J2" si="0">E$101/($A$101-$A$2+1)</f>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8844,31 +8598,31 @@
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:J3" si="2">E2+E$101/($A$101-$A$2+1)</f>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>2E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8885,31 +8639,31 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:J4" si="4">E3+E$101/($A$101-$A$2+1)</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="G4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -8926,31 +8680,31 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:J5" si="5">E4+E$101/($A$101-$A$2+1)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -8967,31 +8721,31 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:J6" si="6">E5+E$101/($A$101-$A$2+1)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -9008,31 +8762,31 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:J7" si="7">E6+E$101/($A$101-$A$2+1)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -9049,31 +8803,31 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:J8" si="8">E7+E$101/($A$101-$A$2+1)</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -9090,31 +8844,31 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:J9" si="9">E8+E$101/($A$101-$A$2+1)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="G9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="9"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6000000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -9131,31 +8885,31 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:J10" si="10">E9+E$101/($A$101-$A$2+1)</f>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="F10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="10"/>
-        <v>9.0000000000000011E-3</v>
+        <v>1.8000000000000004E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -9172,31 +8926,31 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:J11" si="11">E10+E$101/($A$101-$A$2+1)</f>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="F11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000005E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -9213,31 +8967,31 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:J12" si="12">E11+E$101/($A$101-$A$2+1)</f>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="F12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="G12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="12"/>
-        <v>1.1000000000000003E-2</v>
+        <v>2.2000000000000006E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -9254,31 +9008,31 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:J13" si="13">E12+E$101/($A$101-$A$2+1)</f>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="F13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="13"/>
-        <v>1.2000000000000004E-2</v>
+        <v>2.4000000000000007E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -9295,31 +9049,31 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:J14" si="14">E13+E$101/($A$101-$A$2+1)</f>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="14"/>
-        <v>1.3000000000000005E-2</v>
+        <v>2.6000000000000007E-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -9336,31 +9090,31 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="E15">
         <f t="shared" ref="E15:J15" si="15">E14+E$101/($A$101-$A$2+1)</f>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="15"/>
-        <v>1.4000000000000005E-2</v>
+        <v>2.8000000000000008E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -9377,31 +9131,31 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:J16" si="16">E15+E$101/($A$101-$A$2+1)</f>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="16"/>
-        <v>1.5000000000000006E-2</v>
+        <v>3.0000000000000009E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -9418,31 +9172,31 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:J17" si="17">E16+E$101/($A$101-$A$2+1)</f>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="G17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="17"/>
-        <v>1.6000000000000007E-2</v>
+        <v>3.200000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -9459,31 +9213,31 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:J18" si="18">E17+E$101/($A$101-$A$2+1)</f>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="18"/>
-        <v>1.7000000000000008E-2</v>
+        <v>3.4000000000000011E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -9500,31 +9254,31 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="E19">
         <f t="shared" ref="E19:J19" si="19">E18+E$101/($A$101-$A$2+1)</f>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="19"/>
-        <v>1.8000000000000009E-2</v>
+        <v>3.6000000000000012E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -9541,31 +9295,31 @@
       </c>
       <c r="D20">
         <f t="shared" si="20"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="E20">
         <f t="shared" ref="E20:J20" si="21">E19+E$101/($A$101-$A$2+1)</f>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="21"/>
-        <v>1.900000000000001E-2</v>
+        <v>3.8000000000000013E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -9582,31 +9336,31 @@
       </c>
       <c r="D21">
         <f t="shared" si="20"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:J21" si="22">E20+E$101/($A$101-$A$2+1)</f>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="F21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="H21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="22"/>
-        <v>2.0000000000000011E-2</v>
+        <v>4.000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -9623,31 +9377,31 @@
       </c>
       <c r="D22">
         <f t="shared" si="20"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:J22" si="23">E21+E$101/($A$101-$A$2+1)</f>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="F22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="23"/>
-        <v>2.1000000000000012E-2</v>
+        <v>4.2000000000000006E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -9664,31 +9418,31 @@
       </c>
       <c r="D23">
         <f t="shared" si="20"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:J23" si="24">E22+E$101/($A$101-$A$2+1)</f>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="24"/>
-        <v>2.2000000000000013E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -9705,31 +9459,31 @@
       </c>
       <c r="D24">
         <f t="shared" si="20"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:J24" si="25">E23+E$101/($A$101-$A$2+1)</f>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="25"/>
-        <v>2.3000000000000013E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -9746,31 +9500,31 @@
       </c>
       <c r="D25">
         <f t="shared" si="20"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:J25" si="26">E24+E$101/($A$101-$A$2+1)</f>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J25">
         <f t="shared" si="26"/>
-        <v>2.4000000000000014E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -9787,31 +9541,31 @@
       </c>
       <c r="D26">
         <f t="shared" si="20"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:J26" si="27">E25+E$101/($A$101-$A$2+1)</f>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="F26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="27"/>
-        <v>2.5000000000000015E-2</v>
+        <v>4.9999999999999992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -9828,31 +9582,31 @@
       </c>
       <c r="D27">
         <f t="shared" si="20"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:J27" si="28">E26+E$101/($A$101-$A$2+1)</f>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="F27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="G27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="H27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
       <c r="J27">
         <f t="shared" si="28"/>
-        <v>2.6000000000000016E-2</v>
+        <v>5.1999999999999989E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -9869,31 +9623,31 @@
       </c>
       <c r="D28">
         <f t="shared" si="20"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:J28" si="29">E27+E$101/($A$101-$A$2+1)</f>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="F28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="H28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
       <c r="J28">
         <f t="shared" si="29"/>
-        <v>2.7000000000000017E-2</v>
+        <v>5.3999999999999986E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -9910,31 +9664,31 @@
       </c>
       <c r="D29">
         <f t="shared" si="20"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="E29">
         <f t="shared" ref="E29:J29" si="30">E28+E$101/($A$101-$A$2+1)</f>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="F29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="G29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="H29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
       <c r="J29">
         <f t="shared" si="30"/>
-        <v>2.8000000000000018E-2</v>
+        <v>5.5999999999999982E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -9951,31 +9705,31 @@
       </c>
       <c r="D30">
         <f t="shared" si="20"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:J30" si="31">E29+E$101/($A$101-$A$2+1)</f>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="F30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="H30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="31"/>
-        <v>2.9000000000000019E-2</v>
+        <v>5.7999999999999979E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -9992,31 +9746,31 @@
       </c>
       <c r="D31">
         <f t="shared" si="20"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:J31" si="32">E30+E$101/($A$101-$A$2+1)</f>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="F31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="32"/>
-        <v>3.000000000000002E-2</v>
+        <v>5.9999999999999975E-3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -10033,31 +9787,31 @@
       </c>
       <c r="D32">
         <f t="shared" si="20"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="E32">
         <f t="shared" ref="E32:J32" si="33">E31+E$101/($A$101-$A$2+1)</f>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="F32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="G32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="H32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="I32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
       <c r="J32">
         <f t="shared" si="33"/>
-        <v>3.1000000000000021E-2</v>
+        <v>6.1999999999999972E-3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -10074,31 +9828,31 @@
       </c>
       <c r="D33">
         <f t="shared" si="20"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:J33" si="34">E32+E$101/($A$101-$A$2+1)</f>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="F33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="G33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="H33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="I33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
       <c r="J33">
         <f t="shared" si="34"/>
-        <v>3.2000000000000021E-2</v>
+        <v>6.3999999999999968E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -10115,31 +9869,31 @@
       </c>
       <c r="D34">
         <f t="shared" si="20"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:J34" si="35">E33+E$101/($A$101-$A$2+1)</f>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="F34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="G34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="H34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
       <c r="J34">
         <f t="shared" si="35"/>
-        <v>3.3000000000000022E-2</v>
+        <v>6.5999999999999965E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -10156,31 +9910,31 @@
       </c>
       <c r="D35">
         <f t="shared" si="20"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:J35" si="36">E34+E$101/($A$101-$A$2+1)</f>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="F35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="G35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="H35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
       <c r="J35">
         <f t="shared" si="36"/>
-        <v>3.4000000000000023E-2</v>
+        <v>6.7999999999999962E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -10197,31 +9951,31 @@
       </c>
       <c r="D36">
         <f t="shared" si="37"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:J36" si="38">E35+E$101/($A$101-$A$2+1)</f>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="F36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="G36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="H36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
       <c r="J36">
         <f t="shared" si="38"/>
-        <v>3.5000000000000024E-2</v>
+        <v>6.9999999999999958E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -10238,31 +9992,31 @@
       </c>
       <c r="D37">
         <f t="shared" si="37"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:J37" si="39">E36+E$101/($A$101-$A$2+1)</f>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="F37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="G37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="H37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="39"/>
-        <v>3.6000000000000025E-2</v>
+        <v>7.1999999999999955E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -10279,31 +10033,31 @@
       </c>
       <c r="D38">
         <f t="shared" si="37"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="E38">
         <f t="shared" ref="E38:J38" si="40">E37+E$101/($A$101-$A$2+1)</f>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="F38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="G38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="H38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
       <c r="J38">
         <f t="shared" si="40"/>
-        <v>3.7000000000000026E-2</v>
+        <v>7.3999999999999951E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -10320,31 +10074,31 @@
       </c>
       <c r="D39">
         <f t="shared" si="37"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="E39">
         <f t="shared" ref="E39:J39" si="41">E38+E$101/($A$101-$A$2+1)</f>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="F39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="G39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="H39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="I39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
       <c r="J39">
         <f t="shared" si="41"/>
-        <v>3.8000000000000027E-2</v>
+        <v>7.5999999999999948E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -10361,31 +10115,31 @@
       </c>
       <c r="D40">
         <f t="shared" si="37"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="E40">
         <f t="shared" ref="E40:J40" si="42">E39+E$101/($A$101-$A$2+1)</f>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="F40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="G40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="H40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
       <c r="J40">
         <f t="shared" si="42"/>
-        <v>3.9000000000000028E-2</v>
+        <v>7.7999999999999944E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -10402,31 +10156,31 @@
       </c>
       <c r="D41">
         <f t="shared" si="37"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="E41">
         <f t="shared" ref="E41:J41" si="43">E40+E$101/($A$101-$A$2+1)</f>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="F41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="G41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="H41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="I41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
       <c r="J41">
         <f t="shared" si="43"/>
-        <v>4.0000000000000029E-2</v>
+        <v>7.999999999999995E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -10443,31 +10197,31 @@
       </c>
       <c r="D42">
         <f t="shared" si="37"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:J42" si="44">E41+E$101/($A$101-$A$2+1)</f>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="F42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="G42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="H42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="I42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
       <c r="J42">
         <f t="shared" si="44"/>
-        <v>4.1000000000000029E-2</v>
+        <v>8.1999999999999955E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -10484,31 +10238,31 @@
       </c>
       <c r="D43">
         <f t="shared" si="37"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:J43" si="45">E42+E$101/($A$101-$A$2+1)</f>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="F43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="G43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="H43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
       <c r="J43">
         <f t="shared" si="45"/>
-        <v>4.200000000000003E-2</v>
+        <v>8.399999999999996E-3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -10525,31 +10279,31 @@
       </c>
       <c r="D44">
         <f t="shared" si="37"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="E44">
         <f t="shared" ref="E44:J44" si="46">E43+E$101/($A$101-$A$2+1)</f>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="F44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="G44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="H44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
       <c r="J44">
         <f t="shared" si="46"/>
-        <v>4.3000000000000031E-2</v>
+        <v>8.5999999999999965E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -10566,31 +10320,31 @@
       </c>
       <c r="D45">
         <f t="shared" si="37"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="E45">
         <f t="shared" ref="E45:J45" si="47">E44+E$101/($A$101-$A$2+1)</f>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="F45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="G45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="H45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
       <c r="J45">
         <f t="shared" si="47"/>
-        <v>4.4000000000000032E-2</v>
+        <v>8.7999999999999971E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -10607,31 +10361,31 @@
       </c>
       <c r="D46">
         <f t="shared" si="37"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="E46">
         <f t="shared" ref="E46:J46" si="48">E45+E$101/($A$101-$A$2+1)</f>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="F46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="G46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="H46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="48"/>
-        <v>4.5000000000000033E-2</v>
+        <v>8.9999999999999976E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -10648,31 +10402,31 @@
       </c>
       <c r="D47">
         <f t="shared" si="37"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:J47" si="49">E46+E$101/($A$101-$A$2+1)</f>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="F47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="G47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="H47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="I47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
       <c r="J47">
         <f t="shared" si="49"/>
-        <v>4.6000000000000034E-2</v>
+        <v>9.1999999999999981E-3</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -10689,31 +10443,31 @@
       </c>
       <c r="D48">
         <f t="shared" si="37"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="E48">
         <f t="shared" ref="E48:J48" si="50">E47+E$101/($A$101-$A$2+1)</f>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="F48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="G48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="H48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="I48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
       <c r="J48">
         <f t="shared" si="50"/>
-        <v>4.7000000000000035E-2</v>
+        <v>9.3999999999999986E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -10730,31 +10484,31 @@
       </c>
       <c r="D49">
         <f t="shared" si="37"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E49">
         <f t="shared" ref="E49:J49" si="51">E48+E$101/($A$101-$A$2+1)</f>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="J49">
         <f t="shared" si="51"/>
-        <v>4.8000000000000036E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -10771,31 +10525,31 @@
       </c>
       <c r="D50">
         <f t="shared" si="37"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:J50" si="52">E49+E$101/($A$101-$A$2+1)</f>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="H50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="J50">
         <f t="shared" si="52"/>
-        <v>4.9000000000000037E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -10812,31 +10566,31 @@
       </c>
       <c r="D51">
         <f t="shared" si="37"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E51">
         <f t="shared" ref="E51:J51" si="53">E50+E$101/($A$101-$A$2+1)</f>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J51">
         <f t="shared" si="53"/>
-        <v>5.0000000000000037E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -10853,31 +10607,31 @@
       </c>
       <c r="D52">
         <f t="shared" si="54"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E52">
         <f t="shared" ref="E52:J52" si="55">E51+E$101/($A$101-$A$2+1)</f>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="55"/>
-        <v>5.1000000000000038E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -10894,31 +10648,31 @@
       </c>
       <c r="D53">
         <f t="shared" si="54"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="E53">
         <f t="shared" ref="E53:J53" si="56">E52+E$101/($A$101-$A$2+1)</f>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="G53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="H53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
       <c r="J53">
         <f t="shared" si="56"/>
-        <v>5.2000000000000039E-2</v>
+        <v>1.0400000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -10935,31 +10689,31 @@
       </c>
       <c r="D54">
         <f t="shared" si="54"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="E54">
         <f t="shared" ref="E54:J54" si="57">E53+E$101/($A$101-$A$2+1)</f>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="G54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="H54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="I54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="57"/>
-        <v>5.300000000000004E-2</v>
+        <v>1.0600000000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -10976,31 +10730,31 @@
       </c>
       <c r="D55">
         <f t="shared" si="54"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="E55">
         <f t="shared" ref="E55:J55" si="58">E54+E$101/($A$101-$A$2+1)</f>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="F55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="G55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="H55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="I55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="58"/>
-        <v>5.4000000000000041E-2</v>
+        <v>1.0800000000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -11017,31 +10771,31 @@
       </c>
       <c r="D56">
         <f t="shared" si="54"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:J56" si="59">E55+E$101/($A$101-$A$2+1)</f>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="G56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="H56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="I56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="J56">
         <f t="shared" si="59"/>
-        <v>5.5000000000000042E-2</v>
+        <v>1.1000000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -11058,31 +10812,31 @@
       </c>
       <c r="D57">
         <f t="shared" si="54"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="E57">
         <f t="shared" ref="E57:J57" si="60">E56+E$101/($A$101-$A$2+1)</f>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="G57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="H57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
       <c r="J57">
         <f t="shared" si="60"/>
-        <v>5.6000000000000043E-2</v>
+        <v>1.1200000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -11099,31 +10853,31 @@
       </c>
       <c r="D58">
         <f t="shared" si="54"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="E58">
         <f t="shared" ref="E58:J58" si="61">E57+E$101/($A$101-$A$2+1)</f>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="G58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="H58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="I58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
       <c r="J58">
         <f t="shared" si="61"/>
-        <v>5.7000000000000044E-2</v>
+        <v>1.1400000000000004E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -11140,31 +10894,31 @@
       </c>
       <c r="D59">
         <f t="shared" si="54"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="E59">
         <f t="shared" ref="E59:J59" si="62">E58+E$101/($A$101-$A$2+1)</f>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="H59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="I59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
       <c r="J59">
         <f t="shared" si="62"/>
-        <v>5.8000000000000045E-2</v>
+        <v>1.1600000000000004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -11181,31 +10935,31 @@
       </c>
       <c r="D60">
         <f t="shared" si="54"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="E60">
         <f t="shared" ref="E60:J60" si="63">E59+E$101/($A$101-$A$2+1)</f>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="F60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="G60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
       <c r="J60">
         <f t="shared" si="63"/>
-        <v>5.9000000000000045E-2</v>
+        <v>1.1800000000000005E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -11222,31 +10976,31 @@
       </c>
       <c r="D61">
         <f t="shared" si="54"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="E61">
         <f t="shared" ref="E61:J61" si="64">E60+E$101/($A$101-$A$2+1)</f>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="G61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="H61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="I61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="64"/>
-        <v>6.0000000000000046E-2</v>
+        <v>1.2000000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -11263,31 +11017,31 @@
       </c>
       <c r="D62">
         <f t="shared" si="54"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ref="E62:J62" si="65">E61+E$101/($A$101-$A$2+1)</f>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="G62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="H62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="I62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
       <c r="J62">
         <f t="shared" si="65"/>
-        <v>6.1000000000000047E-2</v>
+        <v>1.2200000000000006E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -11304,31 +11058,31 @@
       </c>
       <c r="D63">
         <f t="shared" si="54"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ref="E63:J63" si="66">E62+E$101/($A$101-$A$2+1)</f>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="F63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="G63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="H63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
       <c r="J63">
         <f t="shared" si="66"/>
-        <v>6.2000000000000048E-2</v>
+        <v>1.2400000000000007E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -11345,31 +11099,31 @@
       </c>
       <c r="D64">
         <f t="shared" si="54"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:J64" si="67">E63+E$101/($A$101-$A$2+1)</f>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="G64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="H64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
       <c r="J64">
         <f t="shared" si="67"/>
-        <v>6.3000000000000042E-2</v>
+        <v>1.2600000000000007E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -11386,31 +11140,31 @@
       </c>
       <c r="D65">
         <f t="shared" si="54"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ref="E65:J65" si="68">E64+E$101/($A$101-$A$2+1)</f>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="G65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="H65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
       <c r="J65">
         <f t="shared" si="68"/>
-        <v>6.4000000000000043E-2</v>
+        <v>1.2800000000000008E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -11427,31 +11181,31 @@
       </c>
       <c r="D66">
         <f t="shared" si="54"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:J66" si="69">E65+E$101/($A$101-$A$2+1)</f>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="G66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="H66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="I66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
       <c r="J66">
         <f t="shared" si="69"/>
-        <v>6.5000000000000044E-2</v>
+        <v>1.3000000000000008E-2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -11468,31 +11222,31 @@
       </c>
       <c r="D67">
         <f t="shared" si="54"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:J67" si="70">E66+E$101/($A$101-$A$2+1)</f>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="G67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="H67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="I67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="70"/>
-        <v>6.6000000000000045E-2</v>
+        <v>1.3200000000000009E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -11509,31 +11263,31 @@
       </c>
       <c r="D68">
         <f t="shared" si="71"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:J68" si="72">E67+E$101/($A$101-$A$2+1)</f>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="G68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="H68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="I68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
       <c r="J68">
         <f t="shared" si="72"/>
-        <v>6.7000000000000046E-2</v>
+        <v>1.3400000000000009E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -11550,31 +11304,31 @@
       </c>
       <c r="D69">
         <f t="shared" si="71"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:J69" si="73">E68+E$101/($A$101-$A$2+1)</f>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="F69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="G69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="H69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="I69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
       <c r="J69">
         <f t="shared" si="73"/>
-        <v>6.8000000000000047E-2</v>
+        <v>1.360000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -11591,31 +11345,31 @@
       </c>
       <c r="D70">
         <f t="shared" si="71"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="E70">
         <f t="shared" ref="E70:J70" si="74">E69+E$101/($A$101-$A$2+1)</f>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="F70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="G70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="H70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="I70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
       <c r="J70">
         <f t="shared" si="74"/>
-        <v>6.9000000000000047E-2</v>
+        <v>1.380000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -11632,31 +11386,31 @@
       </c>
       <c r="D71">
         <f t="shared" si="71"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:J71" si="75">E70+E$101/($A$101-$A$2+1)</f>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="F71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="G71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="H71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="I71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
       <c r="J71">
         <f t="shared" si="75"/>
-        <v>7.0000000000000048E-2</v>
+        <v>1.4000000000000011E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -11673,31 +11427,31 @@
       </c>
       <c r="D72">
         <f t="shared" si="71"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:J72" si="76">E71+E$101/($A$101-$A$2+1)</f>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="F72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="G72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="H72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="I72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
       <c r="J72">
         <f t="shared" si="76"/>
-        <v>7.1000000000000049E-2</v>
+        <v>1.4200000000000011E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -11714,31 +11468,31 @@
       </c>
       <c r="D73">
         <f t="shared" si="71"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="E73">
         <f t="shared" ref="E73:J73" si="77">E72+E$101/($A$101-$A$2+1)</f>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="F73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="G73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="77"/>
-        <v>7.200000000000005E-2</v>
+        <v>1.4400000000000012E-2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -11755,31 +11509,31 @@
       </c>
       <c r="D74">
         <f t="shared" si="71"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="E74">
         <f t="shared" ref="E74:J74" si="78">E73+E$101/($A$101-$A$2+1)</f>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="F74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="G74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="H74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="I74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
       <c r="J74">
         <f t="shared" si="78"/>
-        <v>7.3000000000000051E-2</v>
+        <v>1.4600000000000012E-2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -11796,31 +11550,31 @@
       </c>
       <c r="D75">
         <f t="shared" si="71"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="E75">
         <f t="shared" ref="E75:J75" si="79">E74+E$101/($A$101-$A$2+1)</f>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="F75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="G75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="H75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="I75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
       <c r="J75">
         <f t="shared" si="79"/>
-        <v>7.4000000000000052E-2</v>
+        <v>1.4800000000000013E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -11837,31 +11591,31 @@
       </c>
       <c r="D76">
         <f t="shared" si="71"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:J76" si="80">E75+E$101/($A$101-$A$2+1)</f>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="F76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="G76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="H76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="I76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="J76">
         <f t="shared" si="80"/>
-        <v>7.5000000000000053E-2</v>
+        <v>1.5000000000000013E-2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -11878,31 +11632,31 @@
       </c>
       <c r="D77">
         <f t="shared" si="71"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="E77">
         <f t="shared" ref="E77:J77" si="81">E76+E$101/($A$101-$A$2+1)</f>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="F77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="G77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="H77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="I77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
       <c r="J77">
         <f t="shared" si="81"/>
-        <v>7.6000000000000054E-2</v>
+        <v>1.5200000000000014E-2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -11919,31 +11673,31 @@
       </c>
       <c r="D78">
         <f t="shared" si="71"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="E78">
         <f t="shared" ref="E78:J78" si="82">E77+E$101/($A$101-$A$2+1)</f>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="F78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="G78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="H78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="I78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
       <c r="J78">
         <f t="shared" si="82"/>
-        <v>7.7000000000000055E-2</v>
+        <v>1.5400000000000014E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -11960,31 +11714,31 @@
       </c>
       <c r="D79">
         <f t="shared" si="71"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="E79">
         <f t="shared" ref="E79:J79" si="83">E78+E$101/($A$101-$A$2+1)</f>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="F79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="G79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="H79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="I79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
       <c r="J79">
         <f t="shared" si="83"/>
-        <v>7.8000000000000055E-2</v>
+        <v>1.5600000000000015E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -12001,31 +11755,31 @@
       </c>
       <c r="D80">
         <f t="shared" si="71"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="E80">
         <f t="shared" ref="E80:J80" si="84">E79+E$101/($A$101-$A$2+1)</f>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="F80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="G80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="H80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="I80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
       <c r="J80">
         <f t="shared" si="84"/>
-        <v>7.9000000000000056E-2</v>
+        <v>1.5800000000000015E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -12042,31 +11796,31 @@
       </c>
       <c r="D81">
         <f t="shared" si="71"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="E81">
         <f t="shared" ref="E81:J81" si="85">E80+E$101/($A$101-$A$2+1)</f>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="F81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="G81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="H81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="I81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="85"/>
-        <v>8.0000000000000057E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -12083,31 +11837,31 @@
       </c>
       <c r="D82">
         <f t="shared" si="71"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="E82">
         <f t="shared" ref="E82:J82" si="86">E81+E$101/($A$101-$A$2+1)</f>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="F82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="G82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="H82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="I82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
       <c r="J82">
         <f t="shared" si="86"/>
-        <v>8.1000000000000058E-2</v>
+        <v>1.6200000000000013E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -12124,31 +11878,31 @@
       </c>
       <c r="D83">
         <f t="shared" si="71"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="E83">
         <f t="shared" ref="E83:J83" si="87">E82+E$101/($A$101-$A$2+1)</f>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="F83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="G83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="H83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="I83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="87"/>
-        <v>8.2000000000000059E-2</v>
+        <v>1.6400000000000012E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -12165,31 +11919,31 @@
       </c>
       <c r="D84">
         <f t="shared" si="88"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="E84">
         <f t="shared" ref="E84:J84" si="89">E83+E$101/($A$101-$A$2+1)</f>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="F84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="G84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="H84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="I84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
       <c r="J84">
         <f t="shared" si="89"/>
-        <v>8.300000000000006E-2</v>
+        <v>1.6600000000000011E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -12206,31 +11960,31 @@
       </c>
       <c r="D85">
         <f t="shared" si="88"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="E85">
         <f t="shared" ref="E85:J85" si="90">E84+E$101/($A$101-$A$2+1)</f>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="F85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="G85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="H85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="I85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
       <c r="J85">
         <f t="shared" si="90"/>
-        <v>8.4000000000000061E-2</v>
+        <v>1.6800000000000009E-2</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -12247,31 +12001,31 @@
       </c>
       <c r="D86">
         <f t="shared" si="88"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="E86">
         <f t="shared" ref="E86:J86" si="91">E85+E$101/($A$101-$A$2+1)</f>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="F86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="H86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="I86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
       <c r="J86">
         <f t="shared" si="91"/>
-        <v>8.5000000000000062E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -12288,31 +12042,31 @@
       </c>
       <c r="D87">
         <f t="shared" si="88"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="E87">
         <f t="shared" ref="E87:J87" si="92">E86+E$101/($A$101-$A$2+1)</f>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="F87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="G87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="H87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="I87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="92"/>
-        <v>8.6000000000000063E-2</v>
+        <v>1.7200000000000007E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -12329,31 +12083,31 @@
       </c>
       <c r="D88">
         <f t="shared" si="88"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="E88">
         <f t="shared" ref="E88:J88" si="93">E87+E$101/($A$101-$A$2+1)</f>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="F88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="G88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="H88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="I88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
       <c r="J88">
         <f t="shared" si="93"/>
-        <v>8.7000000000000063E-2</v>
+        <v>1.7400000000000006E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -12370,31 +12124,31 @@
       </c>
       <c r="D89">
         <f t="shared" si="88"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="E89">
         <f t="shared" ref="E89:J89" si="94">E88+E$101/($A$101-$A$2+1)</f>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="F89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="G89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="H89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="I89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
       <c r="J89">
         <f t="shared" si="94"/>
-        <v>8.8000000000000064E-2</v>
+        <v>1.7600000000000005E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -12411,31 +12165,31 @@
       </c>
       <c r="D90">
         <f t="shared" si="88"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="E90">
         <f t="shared" ref="E90:J90" si="95">E89+E$101/($A$101-$A$2+1)</f>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="F90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="G90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="H90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="I90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="J90">
         <f t="shared" si="95"/>
-        <v>8.9000000000000065E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -12452,31 +12206,31 @@
       </c>
       <c r="D91">
         <f t="shared" si="88"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="E91">
         <f t="shared" ref="E91:J91" si="96">E90+E$101/($A$101-$A$2+1)</f>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="F91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="G91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="H91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="I91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="J91">
         <f t="shared" si="96"/>
-        <v>9.0000000000000066E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -12493,31 +12247,31 @@
       </c>
       <c r="D92">
         <f t="shared" si="88"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="E92">
         <f t="shared" ref="E92:J92" si="97">E91+E$101/($A$101-$A$2+1)</f>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="F92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="H92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="I92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="J92">
         <f t="shared" si="97"/>
-        <v>9.1000000000000067E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -12534,31 +12288,31 @@
       </c>
       <c r="D93">
         <f t="shared" si="88"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E93">
         <f t="shared" ref="E93:J93" si="98">E92+E$101/($A$101-$A$2+1)</f>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="F93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="G93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="H93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="I93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="J93">
         <f t="shared" si="98"/>
-        <v>9.2000000000000068E-2</v>
+        <v>1.84E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -12575,31 +12329,31 @@
       </c>
       <c r="D94">
         <f t="shared" si="88"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E94">
         <f t="shared" ref="E94:J94" si="99">E93+E$101/($A$101-$A$2+1)</f>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="F94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="G94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="H94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="I94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="99"/>
-        <v>9.3000000000000069E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -12616,31 +12370,31 @@
       </c>
       <c r="D95">
         <f t="shared" si="88"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="E95">
         <f t="shared" ref="E95:J95" si="100">E94+E$101/($A$101-$A$2+1)</f>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="F95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="G95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="H95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="I95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
       <c r="J95">
         <f t="shared" si="100"/>
-        <v>9.400000000000007E-2</v>
+        <v>1.8799999999999997E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -12657,31 +12411,31 @@
       </c>
       <c r="D96">
         <f t="shared" si="88"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="E96">
         <f t="shared" ref="E96:J96" si="101">E95+E$101/($A$101-$A$2+1)</f>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="F96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="G96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="I96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
       <c r="J96">
         <f t="shared" si="101"/>
-        <v>9.500000000000007E-2</v>
+        <v>1.8999999999999996E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -12698,31 +12452,31 @@
       </c>
       <c r="D97">
         <f t="shared" si="88"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="E97">
         <f t="shared" ref="E97:J97" si="102">E96+E$101/($A$101-$A$2+1)</f>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="F97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="G97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="H97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="I97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
       <c r="J97">
         <f t="shared" si="102"/>
-        <v>9.6000000000000071E-2</v>
+        <v>1.9199999999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -12739,31 +12493,31 @@
       </c>
       <c r="D98">
         <f t="shared" si="88"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="E98">
         <f t="shared" ref="E98:J98" si="103">E97+E$101/($A$101-$A$2+1)</f>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="F98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="G98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="I98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
       <c r="J98">
         <f t="shared" si="103"/>
-        <v>9.7000000000000072E-2</v>
+        <v>1.9399999999999994E-2</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -12780,31 +12534,31 @@
       </c>
       <c r="D99">
         <f t="shared" si="88"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="E99">
         <f t="shared" ref="E99:J99" si="104">E98+E$101/($A$101-$A$2+1)</f>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="F99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="G99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="H99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="I99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
       <c r="J99">
         <f t="shared" si="104"/>
-        <v>9.8000000000000073E-2</v>
+        <v>1.9599999999999992E-2</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -12821,31 +12575,31 @@
       </c>
       <c r="D100">
         <f t="shared" si="105"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="E100">
         <f t="shared" ref="E100:J100" si="106">E99+E$101/($A$101-$A$2+1)</f>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="G100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="H100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="I100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
       <c r="J100">
         <f t="shared" si="106"/>
-        <v>9.9000000000000074E-2</v>
+        <v>1.9799999999999991E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -12859,25 +12613,25 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="H101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="J101">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -12889,8 +12643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD9F6B7-8662-4A3D-A0AE-33D8C88B1CB1}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12948,7 +12702,7 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -13239,8 +12993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B113E7EB-5609-4A92-B268-BD8E5D3DEF93}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13264,7 +13018,7 @@
         <v>55</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -13285,8 +13039,8 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4">
-        <v>0.03</v>
+      <c r="B4" s="2">
+        <v>1E-3</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -13341,7 +13095,7 @@
         <v>160</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="C9" t="s">
         <v>161</v>
@@ -13352,7 +13106,7 @@
         <v>162</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="C10" t="s">
         <v>163</v>
@@ -13363,7 +13117,7 @@
         <v>164</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -13374,7 +13128,7 @@
         <v>166</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C12" t="s">
         <v>168</v>
@@ -13385,7 +13139,7 @@
         <v>167</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C13" t="s">
         <v>169</v>
@@ -13396,7 +13150,7 @@
         <v>170</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C14" t="s">
         <v>177</v>
@@ -13407,7 +13161,7 @@
         <v>171</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C15" t="s">
         <v>176</v>
@@ -13418,7 +13172,7 @@
         <v>173</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C16" t="s">
         <v>175</v>
@@ -13429,7 +13183,7 @@
         <v>172</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>0.995</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
